--- a/Code/Results/Cases/Case_0_21/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_21/res_line/pl_mw.xlsx
@@ -415,19 +415,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1120415897858997</v>
+        <v>0.1120415897861591</v>
       </c>
       <c r="D2">
-        <v>0.4549768448856994</v>
+        <v>0.4549768448855076</v>
       </c>
       <c r="E2">
         <v>3.791059008277713</v>
       </c>
       <c r="F2">
-        <v>6.96254938481357</v>
+        <v>6.9625493848134</v>
       </c>
       <c r="G2">
-        <v>6.139134310005929</v>
+        <v>6.139134310005801</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -439,10 +439,10 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>2.853540245364769</v>
+        <v>2.853540245364755</v>
       </c>
       <c r="L2">
-        <v>46.36283704651225</v>
+        <v>46.36283704651197</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -453,19 +453,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.04955422095032169</v>
+        <v>0.04955422095032525</v>
       </c>
       <c r="D3">
-        <v>0.2222899788744215</v>
+        <v>0.2222899788743149</v>
       </c>
       <c r="E3">
         <v>2.764444004484432</v>
       </c>
       <c r="F3">
-        <v>4.19464259617564</v>
+        <v>4.194642596175555</v>
       </c>
       <c r="G3">
-        <v>3.619184718577827</v>
+        <v>3.619184718577756</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -477,7 +477,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>2.116532575902298</v>
+        <v>2.116532575902283</v>
       </c>
       <c r="L3">
         <v>34.84896811167567</v>
@@ -491,19 +491,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.03166321023655927</v>
+        <v>0.03166321023676977</v>
       </c>
       <c r="D4">
-        <v>0.1524020746156651</v>
+        <v>0.1524020746156864</v>
       </c>
       <c r="E4">
-        <v>2.358259617472683</v>
+        <v>2.358259617472697</v>
       </c>
       <c r="F4">
-        <v>3.262081497319613</v>
+        <v>3.2620814973195</v>
       </c>
       <c r="G4">
-        <v>2.782528102847806</v>
+        <v>2.782528102847692</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -515,10 +515,10 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.816837418183823</v>
+        <v>1.816837418183766</v>
       </c>
       <c r="L4">
-        <v>30.03926124994291</v>
+        <v>30.03926124994285</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -529,19 +529,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.02622500923953375</v>
+        <v>0.02622500923971849</v>
       </c>
       <c r="D5">
-        <v>0.130592948481322</v>
+        <v>0.1305929484814214</v>
       </c>
       <c r="E5">
         <v>2.213342906423179</v>
       </c>
       <c r="F5">
-        <v>2.95462079675913</v>
+        <v>2.954620796759301</v>
       </c>
       <c r="G5">
-        <v>2.508554441434313</v>
+        <v>2.50855444143447</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -553,10 +553,10 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1.708863638537949</v>
+        <v>1.708863638537963</v>
       </c>
       <c r="L5">
-        <v>28.29281222110006</v>
+        <v>28.29281222110046</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -567,19 +567,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.02540148428984335</v>
+        <v>0.02540148428983358</v>
       </c>
       <c r="D6">
-        <v>0.1272585551788907</v>
+        <v>0.1272585551788836</v>
       </c>
       <c r="E6">
-        <v>2.19016623585253</v>
+        <v>2.190166235852502</v>
       </c>
       <c r="F6">
-        <v>2.906731035126427</v>
+        <v>2.906731035126484</v>
       </c>
       <c r="G6">
-        <v>2.465976975906713</v>
+        <v>2.465976975906742</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -591,7 +591,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1.691545171444602</v>
+        <v>1.691545171444616</v>
       </c>
       <c r="L6">
         <v>28.01208343705434</v>
@@ -605,19 +605,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.03158398688676289</v>
+        <v>0.03158398688658881</v>
       </c>
       <c r="D7">
-        <v>0.1520867257274361</v>
+        <v>0.1520867257273366</v>
       </c>
       <c r="E7">
-        <v>2.356239635979676</v>
+        <v>2.356239635979662</v>
       </c>
       <c r="F7">
-        <v>3.257701896504443</v>
+        <v>3.257701896504358</v>
       </c>
       <c r="G7">
-        <v>2.778618315835942</v>
+        <v>2.778618315835885</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -629,7 +629,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1.815336117251903</v>
+        <v>1.815336117251888</v>
       </c>
       <c r="L7">
         <v>30.01502408096212</v>
@@ -643,19 +643,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.08158363606444041</v>
+        <v>0.08158363606425567</v>
       </c>
       <c r="D8">
-        <v>0.3431509695602557</v>
+        <v>0.3431509695603552</v>
       </c>
       <c r="E8">
-        <v>3.340353426743391</v>
+        <v>3.34035342674332</v>
       </c>
       <c r="F8">
-        <v>5.681220551775766</v>
+        <v>5.681220551775624</v>
       </c>
       <c r="G8">
-        <v>4.966774763426528</v>
+        <v>4.966774763426372</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -667,10 +667,10 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>2.53370583116552</v>
+        <v>2.533705831165491</v>
       </c>
       <c r="L8">
-        <v>41.43107168206967</v>
+        <v>41.43107168206922</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -681,19 +681,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.08158363606444041</v>
+        <v>0.08158363606425567</v>
       </c>
       <c r="D9">
-        <v>0.3431509695602557</v>
+        <v>0.3431509695603552</v>
       </c>
       <c r="E9">
-        <v>3.340353426743391</v>
+        <v>3.34035342674332</v>
       </c>
       <c r="F9">
-        <v>5.681220551775766</v>
+        <v>5.681220551775624</v>
       </c>
       <c r="G9">
-        <v>4.966774763426528</v>
+        <v>4.966774763426372</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -705,10 +705,10 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>2.53370583116552</v>
+        <v>2.533705831165491</v>
       </c>
       <c r="L9">
-        <v>41.43107168206967</v>
+        <v>41.43107168206922</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -719,19 +719,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.08158363606444041</v>
+        <v>0.08158363606425567</v>
       </c>
       <c r="D10">
-        <v>0.3431509695602557</v>
+        <v>0.3431509695603552</v>
       </c>
       <c r="E10">
-        <v>3.340353426743391</v>
+        <v>3.34035342674332</v>
       </c>
       <c r="F10">
-        <v>5.681220551775766</v>
+        <v>5.681220551775624</v>
       </c>
       <c r="G10">
-        <v>4.966774763426528</v>
+        <v>4.966774763426372</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -743,10 +743,10 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>2.53370583116552</v>
+        <v>2.533705831165491</v>
       </c>
       <c r="L10">
-        <v>41.43107168206967</v>
+        <v>41.43107168206922</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -757,19 +757,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.08158363606444041</v>
+        <v>0.08158363606425567</v>
       </c>
       <c r="D11">
-        <v>0.3431509695602557</v>
+        <v>0.3431509695603552</v>
       </c>
       <c r="E11">
-        <v>3.340353426743391</v>
+        <v>3.34035342674332</v>
       </c>
       <c r="F11">
-        <v>5.681220551775766</v>
+        <v>5.681220551775624</v>
       </c>
       <c r="G11">
-        <v>4.966774763426528</v>
+        <v>4.966774763426372</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -781,10 +781,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>2.53370583116552</v>
+        <v>2.533705831165491</v>
       </c>
       <c r="L11">
-        <v>41.43107168206967</v>
+        <v>41.43107168206922</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -795,19 +795,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.08158363606444041</v>
+        <v>0.08158363606425567</v>
       </c>
       <c r="D12">
-        <v>0.3431509695602557</v>
+        <v>0.3431509695603552</v>
       </c>
       <c r="E12">
-        <v>3.340353426743391</v>
+        <v>3.34035342674332</v>
       </c>
       <c r="F12">
-        <v>5.681220551775766</v>
+        <v>5.681220551775624</v>
       </c>
       <c r="G12">
-        <v>4.966774763426528</v>
+        <v>4.966774763426372</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -819,10 +819,10 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>2.53370583116552</v>
+        <v>2.533705831165491</v>
       </c>
       <c r="L12">
-        <v>41.43107168206967</v>
+        <v>41.43107168206922</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -833,19 +833,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.08158363606444041</v>
+        <v>0.08158363606425567</v>
       </c>
       <c r="D13">
-        <v>0.3431509695602557</v>
+        <v>0.3431509695603552</v>
       </c>
       <c r="E13">
-        <v>3.340353426743391</v>
+        <v>3.34035342674332</v>
       </c>
       <c r="F13">
-        <v>5.681220551775766</v>
+        <v>5.681220551775624</v>
       </c>
       <c r="G13">
-        <v>4.966774763426528</v>
+        <v>4.966774763426372</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -857,10 +857,10 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>2.53370583116552</v>
+        <v>2.533705831165491</v>
       </c>
       <c r="L13">
-        <v>41.43107168206967</v>
+        <v>41.43107168206922</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.08158363606444041</v>
+        <v>0.08158363606425567</v>
       </c>
       <c r="D14">
-        <v>0.3431509695602557</v>
+        <v>0.3431509695603552</v>
       </c>
       <c r="E14">
-        <v>3.340353426743391</v>
+        <v>3.34035342674332</v>
       </c>
       <c r="F14">
-        <v>5.681220551775766</v>
+        <v>5.681220551775624</v>
       </c>
       <c r="G14">
-        <v>4.966774763426528</v>
+        <v>4.966774763426372</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -895,10 +895,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>2.53370583116552</v>
+        <v>2.533705831165491</v>
       </c>
       <c r="L14">
-        <v>41.43107168206967</v>
+        <v>41.43107168206922</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -909,19 +909,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.08158363606444041</v>
+        <v>0.08158363606425567</v>
       </c>
       <c r="D15">
-        <v>0.3431509695602557</v>
+        <v>0.3431509695603552</v>
       </c>
       <c r="E15">
-        <v>3.340353426743391</v>
+        <v>3.34035342674332</v>
       </c>
       <c r="F15">
-        <v>5.681220551775766</v>
+        <v>5.681220551775624</v>
       </c>
       <c r="G15">
-        <v>4.966774763426528</v>
+        <v>4.966774763426372</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -933,10 +933,10 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>2.53370583116552</v>
+        <v>2.533705831165491</v>
       </c>
       <c r="L15">
-        <v>41.43107168206967</v>
+        <v>41.43107168206922</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -947,19 +947,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.08158363606444041</v>
+        <v>0.08158363606425567</v>
       </c>
       <c r="D16">
-        <v>0.3431509695602557</v>
+        <v>0.3431509695603552</v>
       </c>
       <c r="E16">
-        <v>3.340353426743391</v>
+        <v>3.34035342674332</v>
       </c>
       <c r="F16">
-        <v>5.681220551775766</v>
+        <v>5.681220551775624</v>
       </c>
       <c r="G16">
-        <v>4.966774763426528</v>
+        <v>4.966774763426372</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>2.53370583116552</v>
+        <v>2.533705831165491</v>
       </c>
       <c r="L16">
-        <v>41.43107168206967</v>
+        <v>41.43107168206922</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -985,19 +985,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.08158363606444041</v>
+        <v>0.08158363606425567</v>
       </c>
       <c r="D17">
-        <v>0.3431509695602557</v>
+        <v>0.3431509695603552</v>
       </c>
       <c r="E17">
-        <v>3.340353426743391</v>
+        <v>3.34035342674332</v>
       </c>
       <c r="F17">
-        <v>5.681220551775766</v>
+        <v>5.681220551775624</v>
       </c>
       <c r="G17">
-        <v>4.966774763426528</v>
+        <v>4.966774763426372</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1009,10 +1009,10 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>2.53370583116552</v>
+        <v>2.533705831165491</v>
       </c>
       <c r="L17">
-        <v>41.43107168206967</v>
+        <v>41.43107168206922</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1023,19 +1023,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.08158363606444041</v>
+        <v>0.08158363606425567</v>
       </c>
       <c r="D18">
-        <v>0.3431509695602557</v>
+        <v>0.3431509695603552</v>
       </c>
       <c r="E18">
-        <v>3.340353426743391</v>
+        <v>3.34035342674332</v>
       </c>
       <c r="F18">
-        <v>5.681220551775766</v>
+        <v>5.681220551775624</v>
       </c>
       <c r="G18">
-        <v>4.966774763426528</v>
+        <v>4.966774763426372</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1047,10 +1047,10 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>2.53370583116552</v>
+        <v>2.533705831165491</v>
       </c>
       <c r="L18">
-        <v>41.43107168206967</v>
+        <v>41.43107168206922</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1061,19 +1061,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.08158363606444041</v>
+        <v>0.08158363606425567</v>
       </c>
       <c r="D19">
-        <v>0.3431509695602557</v>
+        <v>0.3431509695603552</v>
       </c>
       <c r="E19">
-        <v>3.340353426743391</v>
+        <v>3.34035342674332</v>
       </c>
       <c r="F19">
-        <v>5.681220551775766</v>
+        <v>5.681220551775624</v>
       </c>
       <c r="G19">
-        <v>4.966774763426528</v>
+        <v>4.966774763426372</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1085,10 +1085,10 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>2.53370583116552</v>
+        <v>2.533705831165491</v>
       </c>
       <c r="L19">
-        <v>41.43107168206967</v>
+        <v>41.43107168206922</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1099,19 +1099,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.08158363606444041</v>
+        <v>0.08158363606425567</v>
       </c>
       <c r="D20">
-        <v>0.3431509695602557</v>
+        <v>0.3431509695603552</v>
       </c>
       <c r="E20">
-        <v>3.340353426743391</v>
+        <v>3.34035342674332</v>
       </c>
       <c r="F20">
-        <v>5.681220551775766</v>
+        <v>5.681220551775624</v>
       </c>
       <c r="G20">
-        <v>4.966774763426528</v>
+        <v>4.966774763426372</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1123,10 +1123,10 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>2.53370583116552</v>
+        <v>2.533705831165491</v>
       </c>
       <c r="L20">
-        <v>41.43107168206967</v>
+        <v>41.43107168206922</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1137,19 +1137,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.08158363606444041</v>
+        <v>0.08158363606425567</v>
       </c>
       <c r="D21">
-        <v>0.3431509695602557</v>
+        <v>0.3431509695603552</v>
       </c>
       <c r="E21">
-        <v>3.340353426743391</v>
+        <v>3.34035342674332</v>
       </c>
       <c r="F21">
-        <v>5.681220551775766</v>
+        <v>5.681220551775624</v>
       </c>
       <c r="G21">
-        <v>4.966774763426528</v>
+        <v>4.966774763426372</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1161,10 +1161,10 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>2.53370583116552</v>
+        <v>2.533705831165491</v>
       </c>
       <c r="L21">
-        <v>41.43107168206967</v>
+        <v>41.43107168206922</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1175,19 +1175,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.08158363606444041</v>
+        <v>0.08158363606425567</v>
       </c>
       <c r="D22">
-        <v>0.3431509695602557</v>
+        <v>0.3431509695603552</v>
       </c>
       <c r="E22">
-        <v>3.340353426743391</v>
+        <v>3.34035342674332</v>
       </c>
       <c r="F22">
-        <v>5.681220551775766</v>
+        <v>5.681220551775624</v>
       </c>
       <c r="G22">
-        <v>4.966774763426528</v>
+        <v>4.966774763426372</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1199,10 +1199,10 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>2.53370583116552</v>
+        <v>2.533705831165491</v>
       </c>
       <c r="L22">
-        <v>41.43107168206967</v>
+        <v>41.43107168206922</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1213,19 +1213,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.08158363606444041</v>
+        <v>0.08158363606425567</v>
       </c>
       <c r="D23">
-        <v>0.3431509695602557</v>
+        <v>0.3431509695603552</v>
       </c>
       <c r="E23">
-        <v>3.340353426743391</v>
+        <v>3.34035342674332</v>
       </c>
       <c r="F23">
-        <v>5.681220551775766</v>
+        <v>5.681220551775624</v>
       </c>
       <c r="G23">
-        <v>4.966774763426528</v>
+        <v>4.966774763426372</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1237,10 +1237,10 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>2.53370583116552</v>
+        <v>2.533705831165491</v>
       </c>
       <c r="L23">
-        <v>41.43107168206967</v>
+        <v>41.43107168206922</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1251,19 +1251,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.08158363606444041</v>
+        <v>0.08158363606425567</v>
       </c>
       <c r="D24">
-        <v>0.3431509695602557</v>
+        <v>0.3431509695603552</v>
       </c>
       <c r="E24">
-        <v>3.340353426743391</v>
+        <v>3.34035342674332</v>
       </c>
       <c r="F24">
-        <v>5.681220551775766</v>
+        <v>5.681220551775624</v>
       </c>
       <c r="G24">
-        <v>4.966774763426528</v>
+        <v>4.966774763426372</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1275,10 +1275,10 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>2.53370583116552</v>
+        <v>2.533705831165491</v>
       </c>
       <c r="L24">
-        <v>41.43107168206967</v>
+        <v>41.43107168206922</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1289,19 +1289,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.08158363606444041</v>
+        <v>0.08158363606425567</v>
       </c>
       <c r="D25">
-        <v>0.3431509695602557</v>
+        <v>0.3431509695603552</v>
       </c>
       <c r="E25">
-        <v>3.340353426743391</v>
+        <v>3.34035342674332</v>
       </c>
       <c r="F25">
-        <v>5.681220551775766</v>
+        <v>5.681220551775624</v>
       </c>
       <c r="G25">
-        <v>4.966774763426528</v>
+        <v>4.966774763426372</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1313,10 +1313,10 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>2.53370583116552</v>
+        <v>2.533705831165491</v>
       </c>
       <c r="L25">
-        <v>41.43107168206967</v>
+        <v>41.43107168206922</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_21/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_21/res_line/pl_mw.xlsx
@@ -415,19 +415,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1120415897861591</v>
+        <v>0.1120415897858997</v>
       </c>
       <c r="D2">
-        <v>0.4549768448855076</v>
+        <v>0.4549768448856994</v>
       </c>
       <c r="E2">
         <v>3.791059008277713</v>
       </c>
       <c r="F2">
-        <v>6.9625493848134</v>
+        <v>6.96254938481357</v>
       </c>
       <c r="G2">
-        <v>6.139134310005801</v>
+        <v>6.139134310005929</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -439,10 +439,10 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>2.853540245364755</v>
+        <v>2.853540245364769</v>
       </c>
       <c r="L2">
-        <v>46.36283704651197</v>
+        <v>46.36283704651225</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -453,19 +453,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.04955422095032525</v>
+        <v>0.04955422095032169</v>
       </c>
       <c r="D3">
-        <v>0.2222899788743149</v>
+        <v>0.2222899788744215</v>
       </c>
       <c r="E3">
         <v>2.764444004484432</v>
       </c>
       <c r="F3">
-        <v>4.194642596175555</v>
+        <v>4.19464259617564</v>
       </c>
       <c r="G3">
-        <v>3.619184718577756</v>
+        <v>3.619184718577827</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -477,7 +477,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>2.116532575902283</v>
+        <v>2.116532575902298</v>
       </c>
       <c r="L3">
         <v>34.84896811167567</v>
@@ -491,19 +491,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.03166321023676977</v>
+        <v>0.03166321023655927</v>
       </c>
       <c r="D4">
-        <v>0.1524020746156864</v>
+        <v>0.1524020746156651</v>
       </c>
       <c r="E4">
-        <v>2.358259617472697</v>
+        <v>2.358259617472683</v>
       </c>
       <c r="F4">
-        <v>3.2620814973195</v>
+        <v>3.262081497319613</v>
       </c>
       <c r="G4">
-        <v>2.782528102847692</v>
+        <v>2.782528102847806</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -515,10 +515,10 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.816837418183766</v>
+        <v>1.816837418183823</v>
       </c>
       <c r="L4">
-        <v>30.03926124994285</v>
+        <v>30.03926124994291</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -529,19 +529,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.02622500923971849</v>
+        <v>0.02622500923953375</v>
       </c>
       <c r="D5">
-        <v>0.1305929484814214</v>
+        <v>0.130592948481322</v>
       </c>
       <c r="E5">
         <v>2.213342906423179</v>
       </c>
       <c r="F5">
-        <v>2.954620796759301</v>
+        <v>2.95462079675913</v>
       </c>
       <c r="G5">
-        <v>2.50855444143447</v>
+        <v>2.508554441434313</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -553,10 +553,10 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1.708863638537963</v>
+        <v>1.708863638537949</v>
       </c>
       <c r="L5">
-        <v>28.29281222110046</v>
+        <v>28.29281222110006</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -567,19 +567,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.02540148428983358</v>
+        <v>0.02540148428984335</v>
       </c>
       <c r="D6">
-        <v>0.1272585551788836</v>
+        <v>0.1272585551788907</v>
       </c>
       <c r="E6">
-        <v>2.190166235852502</v>
+        <v>2.19016623585253</v>
       </c>
       <c r="F6">
-        <v>2.906731035126484</v>
+        <v>2.906731035126427</v>
       </c>
       <c r="G6">
-        <v>2.465976975906742</v>
+        <v>2.465976975906713</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -591,7 +591,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1.691545171444616</v>
+        <v>1.691545171444602</v>
       </c>
       <c r="L6">
         <v>28.01208343705434</v>
@@ -605,19 +605,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.03158398688658881</v>
+        <v>0.03158398688676289</v>
       </c>
       <c r="D7">
-        <v>0.1520867257273366</v>
+        <v>0.1520867257274361</v>
       </c>
       <c r="E7">
-        <v>2.356239635979662</v>
+        <v>2.356239635979676</v>
       </c>
       <c r="F7">
-        <v>3.257701896504358</v>
+        <v>3.257701896504443</v>
       </c>
       <c r="G7">
-        <v>2.778618315835885</v>
+        <v>2.778618315835942</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -629,7 +629,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1.815336117251888</v>
+        <v>1.815336117251903</v>
       </c>
       <c r="L7">
         <v>30.01502408096212</v>
@@ -643,19 +643,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.08158363606425567</v>
+        <v>0.08158363606444041</v>
       </c>
       <c r="D8">
-        <v>0.3431509695603552</v>
+        <v>0.3431509695602557</v>
       </c>
       <c r="E8">
-        <v>3.34035342674332</v>
+        <v>3.340353426743391</v>
       </c>
       <c r="F8">
-        <v>5.681220551775624</v>
+        <v>5.681220551775766</v>
       </c>
       <c r="G8">
-        <v>4.966774763426372</v>
+        <v>4.966774763426528</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -667,10 +667,10 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>2.533705831165491</v>
+        <v>2.53370583116552</v>
       </c>
       <c r="L8">
-        <v>41.43107168206922</v>
+        <v>41.43107168206967</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -681,19 +681,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.08158363606425567</v>
+        <v>0.08158363606444041</v>
       </c>
       <c r="D9">
-        <v>0.3431509695603552</v>
+        <v>0.3431509695602557</v>
       </c>
       <c r="E9">
-        <v>3.34035342674332</v>
+        <v>3.340353426743391</v>
       </c>
       <c r="F9">
-        <v>5.681220551775624</v>
+        <v>5.681220551775766</v>
       </c>
       <c r="G9">
-        <v>4.966774763426372</v>
+        <v>4.966774763426528</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -705,10 +705,10 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>2.533705831165491</v>
+        <v>2.53370583116552</v>
       </c>
       <c r="L9">
-        <v>41.43107168206922</v>
+        <v>41.43107168206967</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -719,19 +719,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.08158363606425567</v>
+        <v>0.08158363606444041</v>
       </c>
       <c r="D10">
-        <v>0.3431509695603552</v>
+        <v>0.3431509695602557</v>
       </c>
       <c r="E10">
-        <v>3.34035342674332</v>
+        <v>3.340353426743391</v>
       </c>
       <c r="F10">
-        <v>5.681220551775624</v>
+        <v>5.681220551775766</v>
       </c>
       <c r="G10">
-        <v>4.966774763426372</v>
+        <v>4.966774763426528</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -743,10 +743,10 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>2.533705831165491</v>
+        <v>2.53370583116552</v>
       </c>
       <c r="L10">
-        <v>41.43107168206922</v>
+        <v>41.43107168206967</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -757,19 +757,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.08158363606425567</v>
+        <v>0.08158363606444041</v>
       </c>
       <c r="D11">
-        <v>0.3431509695603552</v>
+        <v>0.3431509695602557</v>
       </c>
       <c r="E11">
-        <v>3.34035342674332</v>
+        <v>3.340353426743391</v>
       </c>
       <c r="F11">
-        <v>5.681220551775624</v>
+        <v>5.681220551775766</v>
       </c>
       <c r="G11">
-        <v>4.966774763426372</v>
+        <v>4.966774763426528</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -781,10 +781,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>2.533705831165491</v>
+        <v>2.53370583116552</v>
       </c>
       <c r="L11">
-        <v>41.43107168206922</v>
+        <v>41.43107168206967</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -795,19 +795,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.08158363606425567</v>
+        <v>0.08158363606444041</v>
       </c>
       <c r="D12">
-        <v>0.3431509695603552</v>
+        <v>0.3431509695602557</v>
       </c>
       <c r="E12">
-        <v>3.34035342674332</v>
+        <v>3.340353426743391</v>
       </c>
       <c r="F12">
-        <v>5.681220551775624</v>
+        <v>5.681220551775766</v>
       </c>
       <c r="G12">
-        <v>4.966774763426372</v>
+        <v>4.966774763426528</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -819,10 +819,10 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>2.533705831165491</v>
+        <v>2.53370583116552</v>
       </c>
       <c r="L12">
-        <v>41.43107168206922</v>
+        <v>41.43107168206967</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -833,19 +833,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.08158363606425567</v>
+        <v>0.08158363606444041</v>
       </c>
       <c r="D13">
-        <v>0.3431509695603552</v>
+        <v>0.3431509695602557</v>
       </c>
       <c r="E13">
-        <v>3.34035342674332</v>
+        <v>3.340353426743391</v>
       </c>
       <c r="F13">
-        <v>5.681220551775624</v>
+        <v>5.681220551775766</v>
       </c>
       <c r="G13">
-        <v>4.966774763426372</v>
+        <v>4.966774763426528</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -857,10 +857,10 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>2.533705831165491</v>
+        <v>2.53370583116552</v>
       </c>
       <c r="L13">
-        <v>41.43107168206922</v>
+        <v>41.43107168206967</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.08158363606425567</v>
+        <v>0.08158363606444041</v>
       </c>
       <c r="D14">
-        <v>0.3431509695603552</v>
+        <v>0.3431509695602557</v>
       </c>
       <c r="E14">
-        <v>3.34035342674332</v>
+        <v>3.340353426743391</v>
       </c>
       <c r="F14">
-        <v>5.681220551775624</v>
+        <v>5.681220551775766</v>
       </c>
       <c r="G14">
-        <v>4.966774763426372</v>
+        <v>4.966774763426528</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -895,10 +895,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>2.533705831165491</v>
+        <v>2.53370583116552</v>
       </c>
       <c r="L14">
-        <v>41.43107168206922</v>
+        <v>41.43107168206967</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -909,19 +909,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.08158363606425567</v>
+        <v>0.08158363606444041</v>
       </c>
       <c r="D15">
-        <v>0.3431509695603552</v>
+        <v>0.3431509695602557</v>
       </c>
       <c r="E15">
-        <v>3.34035342674332</v>
+        <v>3.340353426743391</v>
       </c>
       <c r="F15">
-        <v>5.681220551775624</v>
+        <v>5.681220551775766</v>
       </c>
       <c r="G15">
-        <v>4.966774763426372</v>
+        <v>4.966774763426528</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -933,10 +933,10 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>2.533705831165491</v>
+        <v>2.53370583116552</v>
       </c>
       <c r="L15">
-        <v>41.43107168206922</v>
+        <v>41.43107168206967</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -947,19 +947,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.08158363606425567</v>
+        <v>0.08158363606444041</v>
       </c>
       <c r="D16">
-        <v>0.3431509695603552</v>
+        <v>0.3431509695602557</v>
       </c>
       <c r="E16">
-        <v>3.34035342674332</v>
+        <v>3.340353426743391</v>
       </c>
       <c r="F16">
-        <v>5.681220551775624</v>
+        <v>5.681220551775766</v>
       </c>
       <c r="G16">
-        <v>4.966774763426372</v>
+        <v>4.966774763426528</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>2.533705831165491</v>
+        <v>2.53370583116552</v>
       </c>
       <c r="L16">
-        <v>41.43107168206922</v>
+        <v>41.43107168206967</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -985,19 +985,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.08158363606425567</v>
+        <v>0.08158363606444041</v>
       </c>
       <c r="D17">
-        <v>0.3431509695603552</v>
+        <v>0.3431509695602557</v>
       </c>
       <c r="E17">
-        <v>3.34035342674332</v>
+        <v>3.340353426743391</v>
       </c>
       <c r="F17">
-        <v>5.681220551775624</v>
+        <v>5.681220551775766</v>
       </c>
       <c r="G17">
-        <v>4.966774763426372</v>
+        <v>4.966774763426528</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1009,10 +1009,10 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>2.533705831165491</v>
+        <v>2.53370583116552</v>
       </c>
       <c r="L17">
-        <v>41.43107168206922</v>
+        <v>41.43107168206967</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1023,19 +1023,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.08158363606425567</v>
+        <v>0.08158363606444041</v>
       </c>
       <c r="D18">
-        <v>0.3431509695603552</v>
+        <v>0.3431509695602557</v>
       </c>
       <c r="E18">
-        <v>3.34035342674332</v>
+        <v>3.340353426743391</v>
       </c>
       <c r="F18">
-        <v>5.681220551775624</v>
+        <v>5.681220551775766</v>
       </c>
       <c r="G18">
-        <v>4.966774763426372</v>
+        <v>4.966774763426528</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1047,10 +1047,10 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>2.533705831165491</v>
+        <v>2.53370583116552</v>
       </c>
       <c r="L18">
-        <v>41.43107168206922</v>
+        <v>41.43107168206967</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1061,19 +1061,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.08158363606425567</v>
+        <v>0.08158363606444041</v>
       </c>
       <c r="D19">
-        <v>0.3431509695603552</v>
+        <v>0.3431509695602557</v>
       </c>
       <c r="E19">
-        <v>3.34035342674332</v>
+        <v>3.340353426743391</v>
       </c>
       <c r="F19">
-        <v>5.681220551775624</v>
+        <v>5.681220551775766</v>
       </c>
       <c r="G19">
-        <v>4.966774763426372</v>
+        <v>4.966774763426528</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1085,10 +1085,10 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>2.533705831165491</v>
+        <v>2.53370583116552</v>
       </c>
       <c r="L19">
-        <v>41.43107168206922</v>
+        <v>41.43107168206967</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1099,19 +1099,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.08158363606425567</v>
+        <v>0.08158363606444041</v>
       </c>
       <c r="D20">
-        <v>0.3431509695603552</v>
+        <v>0.3431509695602557</v>
       </c>
       <c r="E20">
-        <v>3.34035342674332</v>
+        <v>3.340353426743391</v>
       </c>
       <c r="F20">
-        <v>5.681220551775624</v>
+        <v>5.681220551775766</v>
       </c>
       <c r="G20">
-        <v>4.966774763426372</v>
+        <v>4.966774763426528</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1123,10 +1123,10 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>2.533705831165491</v>
+        <v>2.53370583116552</v>
       </c>
       <c r="L20">
-        <v>41.43107168206922</v>
+        <v>41.43107168206967</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1137,19 +1137,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.08158363606425567</v>
+        <v>0.08158363606444041</v>
       </c>
       <c r="D21">
-        <v>0.3431509695603552</v>
+        <v>0.3431509695602557</v>
       </c>
       <c r="E21">
-        <v>3.34035342674332</v>
+        <v>3.340353426743391</v>
       </c>
       <c r="F21">
-        <v>5.681220551775624</v>
+        <v>5.681220551775766</v>
       </c>
       <c r="G21">
-        <v>4.966774763426372</v>
+        <v>4.966774763426528</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1161,10 +1161,10 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>2.533705831165491</v>
+        <v>2.53370583116552</v>
       </c>
       <c r="L21">
-        <v>41.43107168206922</v>
+        <v>41.43107168206967</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1175,19 +1175,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.08158363606425567</v>
+        <v>0.08158363606444041</v>
       </c>
       <c r="D22">
-        <v>0.3431509695603552</v>
+        <v>0.3431509695602557</v>
       </c>
       <c r="E22">
-        <v>3.34035342674332</v>
+        <v>3.340353426743391</v>
       </c>
       <c r="F22">
-        <v>5.681220551775624</v>
+        <v>5.681220551775766</v>
       </c>
       <c r="G22">
-        <v>4.966774763426372</v>
+        <v>4.966774763426528</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1199,10 +1199,10 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>2.533705831165491</v>
+        <v>2.53370583116552</v>
       </c>
       <c r="L22">
-        <v>41.43107168206922</v>
+        <v>41.43107168206967</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1213,19 +1213,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.08158363606425567</v>
+        <v>0.08158363606444041</v>
       </c>
       <c r="D23">
-        <v>0.3431509695603552</v>
+        <v>0.3431509695602557</v>
       </c>
       <c r="E23">
-        <v>3.34035342674332</v>
+        <v>3.340353426743391</v>
       </c>
       <c r="F23">
-        <v>5.681220551775624</v>
+        <v>5.681220551775766</v>
       </c>
       <c r="G23">
-        <v>4.966774763426372</v>
+        <v>4.966774763426528</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1237,10 +1237,10 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>2.533705831165491</v>
+        <v>2.53370583116552</v>
       </c>
       <c r="L23">
-        <v>41.43107168206922</v>
+        <v>41.43107168206967</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1251,19 +1251,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.08158363606425567</v>
+        <v>0.08158363606444041</v>
       </c>
       <c r="D24">
-        <v>0.3431509695603552</v>
+        <v>0.3431509695602557</v>
       </c>
       <c r="E24">
-        <v>3.34035342674332</v>
+        <v>3.340353426743391</v>
       </c>
       <c r="F24">
-        <v>5.681220551775624</v>
+        <v>5.681220551775766</v>
       </c>
       <c r="G24">
-        <v>4.966774763426372</v>
+        <v>4.966774763426528</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1275,10 +1275,10 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>2.533705831165491</v>
+        <v>2.53370583116552</v>
       </c>
       <c r="L24">
-        <v>41.43107168206922</v>
+        <v>41.43107168206967</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1289,19 +1289,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.08158363606425567</v>
+        <v>0.08158363606444041</v>
       </c>
       <c r="D25">
-        <v>0.3431509695603552</v>
+        <v>0.3431509695602557</v>
       </c>
       <c r="E25">
-        <v>3.34035342674332</v>
+        <v>3.340353426743391</v>
       </c>
       <c r="F25">
-        <v>5.681220551775624</v>
+        <v>5.681220551775766</v>
       </c>
       <c r="G25">
-        <v>4.966774763426372</v>
+        <v>4.966774763426528</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1313,10 +1313,10 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>2.533705831165491</v>
+        <v>2.53370583116552</v>
       </c>
       <c r="L25">
-        <v>41.43107168206922</v>
+        <v>41.43107168206967</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_21/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_21/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,8 +406,11 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -415,22 +418,22 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1120415897858997</v>
+        <v>0.1116867165378697</v>
       </c>
       <c r="D2">
-        <v>0.4549768448856994</v>
+        <v>0.4520449225470387</v>
       </c>
       <c r="E2">
-        <v>3.791059008277713</v>
+        <v>3.786407518968005</v>
       </c>
       <c r="F2">
-        <v>6.96254938481357</v>
+        <v>6.930892349228031</v>
       </c>
       <c r="G2">
-        <v>6.139134310005929</v>
+        <v>2.133143925104278</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>3.97518697760465</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -439,13 +442,16 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>2.853540245364769</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>46.36283704651225</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>2.850206894915743</v>
+      </c>
+      <c r="M2">
+        <v>46.30700476764713</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -453,22 +459,22 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.04955422095032169</v>
+        <v>0.04951579840971121</v>
       </c>
       <c r="D3">
-        <v>0.2222899788744215</v>
+        <v>0.2212796668389458</v>
       </c>
       <c r="E3">
-        <v>2.764444004484432</v>
+        <v>2.763501048372888</v>
       </c>
       <c r="F3">
-        <v>4.19464259617564</v>
+        <v>4.182433420035153</v>
       </c>
       <c r="G3">
-        <v>3.619184718577827</v>
+        <v>1.270488814654883</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2.338339578578413</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -477,13 +483,16 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>2.116532575902298</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>34.84896811167567</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>2.115793445893445</v>
+      </c>
+      <c r="M3">
+        <v>34.83484824380901</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -491,22 +500,22 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.03166321023655927</v>
+        <v>0.0316519032631537</v>
       </c>
       <c r="D4">
-        <v>0.1524020746156651</v>
+        <v>0.1517383979856035</v>
       </c>
       <c r="E4">
-        <v>2.358259617472683</v>
+        <v>2.357743597673235</v>
       </c>
       <c r="F4">
-        <v>3.262081497319613</v>
+        <v>3.253505589634813</v>
       </c>
       <c r="G4">
-        <v>2.782528102847806</v>
+        <v>0.9801917052717215</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1.796165195454222</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -515,13 +524,16 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.816837418183823</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>30.03926124994291</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>1.816416681238891</v>
+      </c>
+      <c r="M4">
+        <v>30.03096160494465</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -529,22 +541,22 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.02622500923953375</v>
+        <v>0.02621888025562891</v>
       </c>
       <c r="D5">
-        <v>0.130592948481322</v>
+        <v>0.1300270943482857</v>
       </c>
       <c r="E5">
-        <v>2.213342906423179</v>
+        <v>2.212929046135244</v>
       </c>
       <c r="F5">
-        <v>2.95462079675913</v>
+        <v>2.947091584944062</v>
       </c>
       <c r="G5">
-        <v>2.508554441434313</v>
+        <v>0.8845449261236951</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1.619080489522148</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -553,13 +565,16 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1.708863638537949</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>28.29281222110006</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>1.708521521498056</v>
+      </c>
+      <c r="M5">
+        <v>28.28601534806813</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -567,22 +582,22 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.02540148428984335</v>
+        <v>0.02539602652985851</v>
       </c>
       <c r="D6">
-        <v>0.1272585551788907</v>
+        <v>0.1267072986216604</v>
       </c>
       <c r="E6">
-        <v>2.19016623585253</v>
+        <v>2.189766891865801</v>
       </c>
       <c r="F6">
-        <v>2.906731035126427</v>
+        <v>2.899359181922534</v>
       </c>
       <c r="G6">
-        <v>2.465976975906713</v>
+        <v>0.8696491725897317</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1.591587154905298</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -591,13 +606,16 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1.691545171444602</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>28.01208343705434</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>1.691214341008674</v>
+      </c>
+      <c r="M6">
+        <v>28.00550505167018</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -605,22 +623,22 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.03158398688676289</v>
+        <v>0.03157276483072158</v>
       </c>
       <c r="D7">
-        <v>0.1520867257274361</v>
+        <v>0.1514244940360356</v>
       </c>
       <c r="E7">
-        <v>2.356239635979676</v>
+        <v>2.355725186261182</v>
       </c>
       <c r="F7">
-        <v>3.257701896504443</v>
+        <v>3.249141360590158</v>
       </c>
       <c r="G7">
-        <v>2.778618315835942</v>
+        <v>0.9788290863822908</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1.793636138767525</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -629,13 +647,16 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1.815336117251903</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>30.01502408096212</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>1.814916578978824</v>
+      </c>
+      <c r="M7">
+        <v>30.00674711138919</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -643,22 +664,22 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.08158363606444041</v>
+        <v>0.08144337302529792</v>
       </c>
       <c r="D8">
-        <v>0.3431509695602557</v>
+        <v>0.3413574317205033</v>
       </c>
       <c r="E8">
-        <v>3.340353426743391</v>
+        <v>3.33812721681096</v>
       </c>
       <c r="F8">
-        <v>5.681220551775766</v>
+        <v>5.661009731701824</v>
       </c>
       <c r="G8">
-        <v>4.966774763426528</v>
+        <v>1.733826449109586</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>3.213880949971326</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -667,13 +688,16 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>2.53370583116552</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>41.43107168206967</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>2.532050990508779</v>
+      </c>
+      <c r="M8">
+        <v>41.40150755792331</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -681,22 +705,22 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.08158363606444041</v>
+        <v>0.08144337302529792</v>
       </c>
       <c r="D9">
-        <v>0.3431509695602557</v>
+        <v>0.3413574317205033</v>
       </c>
       <c r="E9">
-        <v>3.340353426743391</v>
+        <v>3.33812721681096</v>
       </c>
       <c r="F9">
-        <v>5.681220551775766</v>
+        <v>5.661009731701824</v>
       </c>
       <c r="G9">
-        <v>4.966774763426528</v>
+        <v>1.733826449109586</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>3.213880949971326</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -705,13 +729,16 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>2.53370583116552</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>41.43107168206967</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>2.532050990508779</v>
+      </c>
+      <c r="M9">
+        <v>41.40150755792331</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -719,22 +746,22 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.08158363606444041</v>
+        <v>0.08144337302529792</v>
       </c>
       <c r="D10">
-        <v>0.3431509695602557</v>
+        <v>0.3413574317205033</v>
       </c>
       <c r="E10">
-        <v>3.340353426743391</v>
+        <v>3.33812721681096</v>
       </c>
       <c r="F10">
-        <v>5.681220551775766</v>
+        <v>5.661009731701824</v>
       </c>
       <c r="G10">
-        <v>4.966774763426528</v>
+        <v>1.733826449109586</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>3.213880949971326</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -743,13 +770,16 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>2.53370583116552</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>41.43107168206967</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>2.532050990508779</v>
+      </c>
+      <c r="M10">
+        <v>41.40150755792331</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -757,22 +787,22 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.08158363606444041</v>
+        <v>0.08144337302529792</v>
       </c>
       <c r="D11">
-        <v>0.3431509695602557</v>
+        <v>0.3413574317205033</v>
       </c>
       <c r="E11">
-        <v>3.340353426743391</v>
+        <v>3.33812721681096</v>
       </c>
       <c r="F11">
-        <v>5.681220551775766</v>
+        <v>5.661009731701824</v>
       </c>
       <c r="G11">
-        <v>4.966774763426528</v>
+        <v>1.733826449109586</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>3.213880949971326</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -781,13 +811,16 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>2.53370583116552</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>41.43107168206967</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>2.532050990508779</v>
+      </c>
+      <c r="M11">
+        <v>41.40150755792331</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -795,22 +828,22 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.08158363606444041</v>
+        <v>0.08144337302529792</v>
       </c>
       <c r="D12">
-        <v>0.3431509695602557</v>
+        <v>0.3413574317205033</v>
       </c>
       <c r="E12">
-        <v>3.340353426743391</v>
+        <v>3.33812721681096</v>
       </c>
       <c r="F12">
-        <v>5.681220551775766</v>
+        <v>5.661009731701824</v>
       </c>
       <c r="G12">
-        <v>4.966774763426528</v>
+        <v>1.733826449109586</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>3.213880949971326</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -819,13 +852,16 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>2.53370583116552</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>41.43107168206967</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>2.532050990508779</v>
+      </c>
+      <c r="M12">
+        <v>41.40150755792331</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -833,22 +869,22 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.08158363606444041</v>
+        <v>0.08144337302529792</v>
       </c>
       <c r="D13">
-        <v>0.3431509695602557</v>
+        <v>0.3413574317205033</v>
       </c>
       <c r="E13">
-        <v>3.340353426743391</v>
+        <v>3.33812721681096</v>
       </c>
       <c r="F13">
-        <v>5.681220551775766</v>
+        <v>5.661009731701824</v>
       </c>
       <c r="G13">
-        <v>4.966774763426528</v>
+        <v>1.733826449109586</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>3.213880949971326</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -857,13 +893,16 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>2.53370583116552</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>41.43107168206967</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>2.532050990508779</v>
+      </c>
+      <c r="M13">
+        <v>41.40150755792331</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -871,22 +910,22 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.08158363606444041</v>
+        <v>0.08144337302529792</v>
       </c>
       <c r="D14">
-        <v>0.3431509695602557</v>
+        <v>0.3413574317205033</v>
       </c>
       <c r="E14">
-        <v>3.340353426743391</v>
+        <v>3.33812721681096</v>
       </c>
       <c r="F14">
-        <v>5.681220551775766</v>
+        <v>5.661009731701824</v>
       </c>
       <c r="G14">
-        <v>4.966774763426528</v>
+        <v>1.733826449109586</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>3.213880949971326</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -895,13 +934,16 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>2.53370583116552</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>41.43107168206967</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>2.532050990508779</v>
+      </c>
+      <c r="M14">
+        <v>41.40150755792331</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -909,22 +951,22 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.08158363606444041</v>
+        <v>0.08144337302529792</v>
       </c>
       <c r="D15">
-        <v>0.3431509695602557</v>
+        <v>0.3413574317205033</v>
       </c>
       <c r="E15">
-        <v>3.340353426743391</v>
+        <v>3.33812721681096</v>
       </c>
       <c r="F15">
-        <v>5.681220551775766</v>
+        <v>5.661009731701824</v>
       </c>
       <c r="G15">
-        <v>4.966774763426528</v>
+        <v>1.733826449109586</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>3.213880949971326</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -933,13 +975,16 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>2.53370583116552</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>41.43107168206967</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>2.532050990508779</v>
+      </c>
+      <c r="M15">
+        <v>41.40150755792331</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -947,22 +992,22 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.08158363606444041</v>
+        <v>0.08144337302529792</v>
       </c>
       <c r="D16">
-        <v>0.3431509695602557</v>
+        <v>0.3413574317205033</v>
       </c>
       <c r="E16">
-        <v>3.340353426743391</v>
+        <v>3.33812721681096</v>
       </c>
       <c r="F16">
-        <v>5.681220551775766</v>
+        <v>5.661009731701824</v>
       </c>
       <c r="G16">
-        <v>4.966774763426528</v>
+        <v>1.733826449109586</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>3.213880949971326</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -971,13 +1016,16 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>2.53370583116552</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>41.43107168206967</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>2.532050990508779</v>
+      </c>
+      <c r="M16">
+        <v>41.40150755792331</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -985,22 +1033,22 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.08158363606444041</v>
+        <v>0.08144337302529792</v>
       </c>
       <c r="D17">
-        <v>0.3431509695602557</v>
+        <v>0.3413574317205033</v>
       </c>
       <c r="E17">
-        <v>3.340353426743391</v>
+        <v>3.33812721681096</v>
       </c>
       <c r="F17">
-        <v>5.681220551775766</v>
+        <v>5.661009731701824</v>
       </c>
       <c r="G17">
-        <v>4.966774763426528</v>
+        <v>1.733826449109586</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>3.213880949971326</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1009,13 +1057,16 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>2.53370583116552</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>41.43107168206967</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>2.532050990508779</v>
+      </c>
+      <c r="M17">
+        <v>41.40150755792331</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1023,22 +1074,22 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.08158363606444041</v>
+        <v>0.08144337302529792</v>
       </c>
       <c r="D18">
-        <v>0.3431509695602557</v>
+        <v>0.3413574317205033</v>
       </c>
       <c r="E18">
-        <v>3.340353426743391</v>
+        <v>3.33812721681096</v>
       </c>
       <c r="F18">
-        <v>5.681220551775766</v>
+        <v>5.661009731701824</v>
       </c>
       <c r="G18">
-        <v>4.966774763426528</v>
+        <v>1.733826449109586</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>3.213880949971326</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1047,13 +1098,16 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>2.53370583116552</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>41.43107168206967</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>2.532050990508779</v>
+      </c>
+      <c r="M18">
+        <v>41.40150755792331</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1061,22 +1115,22 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.08158363606444041</v>
+        <v>0.08144337302529792</v>
       </c>
       <c r="D19">
-        <v>0.3431509695602557</v>
+        <v>0.3413574317205033</v>
       </c>
       <c r="E19">
-        <v>3.340353426743391</v>
+        <v>3.33812721681096</v>
       </c>
       <c r="F19">
-        <v>5.681220551775766</v>
+        <v>5.661009731701824</v>
       </c>
       <c r="G19">
-        <v>4.966774763426528</v>
+        <v>1.733826449109586</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>3.213880949971326</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1085,13 +1139,16 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>2.53370583116552</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>41.43107168206967</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>2.532050990508779</v>
+      </c>
+      <c r="M19">
+        <v>41.40150755792331</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1099,22 +1156,22 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.08158363606444041</v>
+        <v>0.08144337302529792</v>
       </c>
       <c r="D20">
-        <v>0.3431509695602557</v>
+        <v>0.3413574317205033</v>
       </c>
       <c r="E20">
-        <v>3.340353426743391</v>
+        <v>3.33812721681096</v>
       </c>
       <c r="F20">
-        <v>5.681220551775766</v>
+        <v>5.661009731701824</v>
       </c>
       <c r="G20">
-        <v>4.966774763426528</v>
+        <v>1.733826449109586</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>3.213880949971326</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1123,13 +1180,16 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>2.53370583116552</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>41.43107168206967</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>2.532050990508779</v>
+      </c>
+      <c r="M20">
+        <v>41.40150755792331</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1137,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.08158363606444041</v>
+        <v>0.08144337302529792</v>
       </c>
       <c r="D21">
-        <v>0.3431509695602557</v>
+        <v>0.3413574317205033</v>
       </c>
       <c r="E21">
-        <v>3.340353426743391</v>
+        <v>3.33812721681096</v>
       </c>
       <c r="F21">
-        <v>5.681220551775766</v>
+        <v>5.661009731701824</v>
       </c>
       <c r="G21">
-        <v>4.966774763426528</v>
+        <v>1.733826449109586</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>3.213880949971326</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1161,13 +1221,16 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>2.53370583116552</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>41.43107168206967</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>2.532050990508779</v>
+      </c>
+      <c r="M21">
+        <v>41.40150755792331</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1175,22 +1238,22 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.08158363606444041</v>
+        <v>0.08144337302529792</v>
       </c>
       <c r="D22">
-        <v>0.3431509695602557</v>
+        <v>0.3413574317205033</v>
       </c>
       <c r="E22">
-        <v>3.340353426743391</v>
+        <v>3.33812721681096</v>
       </c>
       <c r="F22">
-        <v>5.681220551775766</v>
+        <v>5.661009731701824</v>
       </c>
       <c r="G22">
-        <v>4.966774763426528</v>
+        <v>1.733826449109586</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>3.213880949971326</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1199,13 +1262,16 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>2.53370583116552</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>41.43107168206967</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>2.532050990508779</v>
+      </c>
+      <c r="M22">
+        <v>41.40150755792331</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1213,22 +1279,22 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.08158363606444041</v>
+        <v>0.08144337302529792</v>
       </c>
       <c r="D23">
-        <v>0.3431509695602557</v>
+        <v>0.3413574317205033</v>
       </c>
       <c r="E23">
-        <v>3.340353426743391</v>
+        <v>3.33812721681096</v>
       </c>
       <c r="F23">
-        <v>5.681220551775766</v>
+        <v>5.661009731701824</v>
       </c>
       <c r="G23">
-        <v>4.966774763426528</v>
+        <v>1.733826449109586</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>3.213880949971326</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1237,13 +1303,16 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>2.53370583116552</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>41.43107168206967</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>2.532050990508779</v>
+      </c>
+      <c r="M23">
+        <v>41.40150755792331</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1251,22 +1320,22 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.08158363606444041</v>
+        <v>0.08144337302529792</v>
       </c>
       <c r="D24">
-        <v>0.3431509695602557</v>
+        <v>0.3413574317205033</v>
       </c>
       <c r="E24">
-        <v>3.340353426743391</v>
+        <v>3.33812721681096</v>
       </c>
       <c r="F24">
-        <v>5.681220551775766</v>
+        <v>5.661009731701824</v>
       </c>
       <c r="G24">
-        <v>4.966774763426528</v>
+        <v>1.733826449109586</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>3.213880949971326</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1275,13 +1344,16 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>2.53370583116552</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>41.43107168206967</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>2.532050990508779</v>
+      </c>
+      <c r="M24">
+        <v>41.40150755792331</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1289,22 +1361,22 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.08158363606444041</v>
+        <v>0.08144337302529792</v>
       </c>
       <c r="D25">
-        <v>0.3431509695602557</v>
+        <v>0.3413574317205033</v>
       </c>
       <c r="E25">
-        <v>3.340353426743391</v>
+        <v>3.33812721681096</v>
       </c>
       <c r="F25">
-        <v>5.681220551775766</v>
+        <v>5.661009731701824</v>
       </c>
       <c r="G25">
-        <v>4.966774763426528</v>
+        <v>1.733826449109586</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>3.213880949971326</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1313,10 +1385,13 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>2.53370583116552</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>41.43107168206967</v>
+        <v>2.532050990508779</v>
+      </c>
+      <c r="M25">
+        <v>41.40150755792331</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_21/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_21/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,8 +409,14 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -418,40 +424,46 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1116867165378697</v>
+        <v>0.1958535659872211</v>
       </c>
       <c r="D2">
-        <v>0.4520449225470387</v>
+        <v>0.4853243989171006</v>
       </c>
       <c r="E2">
-        <v>3.786407518968005</v>
+        <v>0.02653191678832201</v>
       </c>
       <c r="F2">
-        <v>6.930892349228031</v>
+        <v>16.91529272000838</v>
       </c>
       <c r="G2">
-        <v>2.133143925104278</v>
+        <v>0.0005893319122801351</v>
       </c>
       <c r="H2">
-        <v>3.97518697760465</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.4603735044198203</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>2.850206894915743</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>46.30700476764713</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>7.66312166460591</v>
+      </c>
+      <c r="O2">
+        <v>14.2151172044594</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -459,40 +471,46 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.04951579840971121</v>
+        <v>0.1573447216296842</v>
       </c>
       <c r="D3">
-        <v>0.2212796668389458</v>
+        <v>0.388320209303231</v>
       </c>
       <c r="E3">
-        <v>2.763501048372888</v>
+        <v>0.02513238691291875</v>
       </c>
       <c r="F3">
-        <v>4.182433420035153</v>
+        <v>13.74989855992794</v>
       </c>
       <c r="G3">
-        <v>1.270488814654883</v>
+        <v>0.0006345845807815979</v>
       </c>
       <c r="H3">
-        <v>2.338339578578413</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.377806368380746</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>2.115793445893445</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>34.83484824380901</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>6.74968365211538</v>
+      </c>
+      <c r="O3">
+        <v>11.52842487012313</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -500,40 +518,46 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.0316519032631537</v>
+        <v>0.13703962090365</v>
       </c>
       <c r="D4">
-        <v>0.1517383979856035</v>
+        <v>0.3375329672957861</v>
       </c>
       <c r="E4">
-        <v>2.357743597673235</v>
+        <v>0.02447100027532656</v>
       </c>
       <c r="F4">
-        <v>3.253505589634813</v>
+        <v>12.09517681608224</v>
       </c>
       <c r="G4">
-        <v>0.9801917052717215</v>
+        <v>0.0006600433888113679</v>
       </c>
       <c r="H4">
-        <v>1.796165195454222</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.3347870900256282</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>1.816416681238891</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>30.03096160494465</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>6.187481969422947</v>
+      </c>
+      <c r="O4">
+        <v>10.12354381290243</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -541,40 +565,46 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.02621888025562891</v>
+        <v>0.1293131973011441</v>
       </c>
       <c r="D5">
-        <v>0.1300270943482857</v>
+        <v>0.3182592898891698</v>
       </c>
       <c r="E5">
-        <v>2.212929046135244</v>
+        <v>0.02423691555134866</v>
       </c>
       <c r="F5">
-        <v>2.947091584944062</v>
+        <v>11.4685942822876</v>
       </c>
       <c r="G5">
-        <v>0.8845449261236951</v>
+        <v>0.000670082067664428</v>
       </c>
       <c r="H5">
-        <v>1.619080489522148</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.3185308503029916</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>1.708521521498056</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>28.28601534806813</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>5.958052239810513</v>
+      </c>
+      <c r="O5">
+        <v>9.591437554806959</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -582,40 +612,46 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.02539602652985851</v>
+        <v>0.1280575623504063</v>
       </c>
       <c r="D6">
-        <v>0.1267072986216604</v>
+        <v>0.3151294410100292</v>
       </c>
       <c r="E6">
-        <v>2.189766891865801</v>
+        <v>0.02419989974833214</v>
       </c>
       <c r="F6">
-        <v>2.899359181922534</v>
+        <v>11.36694125643891</v>
       </c>
       <c r="G6">
-        <v>0.8696491725897317</v>
+        <v>0.0006717336116748257</v>
       </c>
       <c r="H6">
-        <v>1.591587154905298</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.3158955080100867</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>1.691214341008674</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>28.00550505167018</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>5.919936152110552</v>
+      </c>
+      <c r="O6">
+        <v>9.50510345779557</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -623,40 +659,46 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.03157276483072158</v>
+        <v>0.1369334749393545</v>
       </c>
       <c r="D7">
-        <v>0.1514244940360356</v>
+        <v>0.3372680083488007</v>
       </c>
       <c r="E7">
-        <v>2.355725186261182</v>
+        <v>0.0244677134538307</v>
       </c>
       <c r="F7">
-        <v>3.249141360590158</v>
+        <v>12.08655665865393</v>
       </c>
       <c r="G7">
-        <v>0.9788290863822908</v>
+        <v>0.0006601799001974071</v>
       </c>
       <c r="H7">
-        <v>1.793636138767525</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.3345633097041372</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>1.814916578978824</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>30.00674711138919</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>6.184389112219776</v>
+      </c>
+      <c r="O7">
+        <v>10.1162239662936</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -664,40 +706,46 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.08144337302529792</v>
+        <v>0.1816417391804777</v>
       </c>
       <c r="D8">
-        <v>0.3413574317205033</v>
+        <v>0.4494057534092946</v>
       </c>
       <c r="E8">
-        <v>3.33812721681096</v>
+        <v>0.02599652291735133</v>
       </c>
       <c r="F8">
-        <v>5.661009731701824</v>
+        <v>15.74333931274441</v>
       </c>
       <c r="G8">
-        <v>1.733826449109586</v>
+        <v>0.0006056237097094019</v>
       </c>
       <c r="H8">
-        <v>3.213880949971326</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.4297692220992104</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>2.532050990508779</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>41.40150755792331</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>7.348453399592699</v>
+      </c>
+      <c r="O8">
+        <v>13.22046321795645</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -705,40 +753,46 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.08144337302529792</v>
+        <v>0.3566920190299214</v>
       </c>
       <c r="D9">
-        <v>0.3413574317205033</v>
+        <v>0.9075713019608997</v>
       </c>
       <c r="E9">
-        <v>3.33812721681096</v>
+        <v>0.03344107621643566</v>
       </c>
       <c r="F9">
-        <v>5.661009731701824</v>
+        <v>30.42174775104172</v>
       </c>
       <c r="G9">
-        <v>1.733826449109586</v>
+        <v>0.0004278932086372341</v>
       </c>
       <c r="H9">
-        <v>3.213880949971326</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.8141874210795947</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>2.532050990508779</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>41.40150755792331</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>9.620230281550619</v>
+      </c>
+      <c r="O9">
+        <v>25.68723297486162</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -746,40 +800,46 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.08144337302529792</v>
+        <v>0.3566920190299214</v>
       </c>
       <c r="D10">
-        <v>0.3413574317205033</v>
+        <v>0.9075713019608997</v>
       </c>
       <c r="E10">
-        <v>3.33812721681096</v>
+        <v>0.03344107621643566</v>
       </c>
       <c r="F10">
-        <v>5.661009731701824</v>
+        <v>30.42174775104172</v>
       </c>
       <c r="G10">
-        <v>1.733826449109586</v>
+        <v>0.0004278932086372341</v>
       </c>
       <c r="H10">
-        <v>3.213880949971326</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.8141874210795947</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>2.532050990508779</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>41.40150755792331</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>9.620230281550619</v>
+      </c>
+      <c r="O10">
+        <v>25.68723297486162</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -787,40 +847,46 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.08144337302529792</v>
+        <v>0.3566920190299214</v>
       </c>
       <c r="D11">
-        <v>0.3413574317205033</v>
+        <v>0.9075713019608997</v>
       </c>
       <c r="E11">
-        <v>3.33812721681096</v>
+        <v>0.03344107621643566</v>
       </c>
       <c r="F11">
-        <v>5.661009731701824</v>
+        <v>30.42174775104172</v>
       </c>
       <c r="G11">
-        <v>1.733826449109586</v>
+        <v>0.0004278932086372341</v>
       </c>
       <c r="H11">
-        <v>3.213880949971326</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.8141874210795947</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>2.532050990508779</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>41.40150755792331</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>9.620230281550619</v>
+      </c>
+      <c r="O11">
+        <v>25.68723297486162</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -828,40 +894,46 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.08144337302529792</v>
+        <v>0.3566920190299214</v>
       </c>
       <c r="D12">
-        <v>0.3413574317205033</v>
+        <v>0.9075713019608997</v>
       </c>
       <c r="E12">
-        <v>3.33812721681096</v>
+        <v>0.03344107621643566</v>
       </c>
       <c r="F12">
-        <v>5.661009731701824</v>
+        <v>30.42174775104172</v>
       </c>
       <c r="G12">
-        <v>1.733826449109586</v>
+        <v>0.0004278932086372341</v>
       </c>
       <c r="H12">
-        <v>3.213880949971326</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.8141874210795947</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>2.532050990508779</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>41.40150755792331</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>9.620230281550619</v>
+      </c>
+      <c r="O12">
+        <v>25.68723297486162</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -869,40 +941,46 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.08144337302529792</v>
+        <v>0.3566920190299214</v>
       </c>
       <c r="D13">
-        <v>0.3413574317205033</v>
+        <v>0.9075713019608997</v>
       </c>
       <c r="E13">
-        <v>3.33812721681096</v>
+        <v>0.03344107621643566</v>
       </c>
       <c r="F13">
-        <v>5.661009731701824</v>
+        <v>30.42174775104172</v>
       </c>
       <c r="G13">
-        <v>1.733826449109586</v>
+        <v>0.0004278932086372341</v>
       </c>
       <c r="H13">
-        <v>3.213880949971326</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.8141874210795947</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>2.532050990508779</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>41.40150755792331</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>9.620230281550619</v>
+      </c>
+      <c r="O13">
+        <v>25.68723297486162</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -910,40 +988,46 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.08144337302529792</v>
+        <v>0.3566920190299214</v>
       </c>
       <c r="D14">
-        <v>0.3413574317205033</v>
+        <v>0.9075713019608997</v>
       </c>
       <c r="E14">
-        <v>3.33812721681096</v>
+        <v>0.03344107621643566</v>
       </c>
       <c r="F14">
-        <v>5.661009731701824</v>
+        <v>30.42174775104172</v>
       </c>
       <c r="G14">
-        <v>1.733826449109586</v>
+        <v>0.0004278932086372341</v>
       </c>
       <c r="H14">
-        <v>3.213880949971326</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.8141874210795947</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>2.532050990508779</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>41.40150755792331</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>9.620230281550619</v>
+      </c>
+      <c r="O14">
+        <v>25.68723297486162</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -951,40 +1035,46 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.08144337302529792</v>
+        <v>0.3566920190299214</v>
       </c>
       <c r="D15">
-        <v>0.3413574317205033</v>
+        <v>0.9075713019608997</v>
       </c>
       <c r="E15">
-        <v>3.33812721681096</v>
+        <v>0.03344107621643566</v>
       </c>
       <c r="F15">
-        <v>5.661009731701824</v>
+        <v>30.42174775104172</v>
       </c>
       <c r="G15">
-        <v>1.733826449109586</v>
+        <v>0.0004278932086372341</v>
       </c>
       <c r="H15">
-        <v>3.213880949971326</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.8141874210795947</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>2.532050990508779</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>41.40150755792331</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>9.620230281550619</v>
+      </c>
+      <c r="O15">
+        <v>25.68723297486162</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -992,40 +1082,46 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.08144337302529792</v>
+        <v>0.3566920190299214</v>
       </c>
       <c r="D16">
-        <v>0.3413574317205033</v>
+        <v>0.9075713019608997</v>
       </c>
       <c r="E16">
-        <v>3.33812721681096</v>
+        <v>0.03344107621643566</v>
       </c>
       <c r="F16">
-        <v>5.661009731701824</v>
+        <v>30.42174775104172</v>
       </c>
       <c r="G16">
-        <v>1.733826449109586</v>
+        <v>0.0004278932086372341</v>
       </c>
       <c r="H16">
-        <v>3.213880949971326</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.8141874210795947</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>2.532050990508779</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>41.40150755792331</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>9.620230281550619</v>
+      </c>
+      <c r="O16">
+        <v>25.68723297486162</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1033,40 +1129,46 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.08144337302529792</v>
+        <v>0.3566920190299214</v>
       </c>
       <c r="D17">
-        <v>0.3413574317205033</v>
+        <v>0.9075713019608997</v>
       </c>
       <c r="E17">
-        <v>3.33812721681096</v>
+        <v>0.03344107621643566</v>
       </c>
       <c r="F17">
-        <v>5.661009731701824</v>
+        <v>30.42174775104172</v>
       </c>
       <c r="G17">
-        <v>1.733826449109586</v>
+        <v>0.0004278932086372341</v>
       </c>
       <c r="H17">
-        <v>3.213880949971326</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.8141874210795947</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>2.532050990508779</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>41.40150755792331</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>9.620230281550619</v>
+      </c>
+      <c r="O17">
+        <v>25.68723297486162</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1074,40 +1176,46 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.08144337302529792</v>
+        <v>0.3566920190299214</v>
       </c>
       <c r="D18">
-        <v>0.3413574317205033</v>
+        <v>0.9075713019608997</v>
       </c>
       <c r="E18">
-        <v>3.33812721681096</v>
+        <v>0.03344107621643566</v>
       </c>
       <c r="F18">
-        <v>5.661009731701824</v>
+        <v>30.42174775104172</v>
       </c>
       <c r="G18">
-        <v>1.733826449109586</v>
+        <v>0.0004278932086372341</v>
       </c>
       <c r="H18">
-        <v>3.213880949971326</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.8141874210795947</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>2.532050990508779</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>41.40150755792331</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>9.620230281550619</v>
+      </c>
+      <c r="O18">
+        <v>25.68723297486162</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1115,40 +1223,46 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.08144337302529792</v>
+        <v>0.3566920190299214</v>
       </c>
       <c r="D19">
-        <v>0.3413574317205033</v>
+        <v>0.9075713019608997</v>
       </c>
       <c r="E19">
-        <v>3.33812721681096</v>
+        <v>0.03344107621643566</v>
       </c>
       <c r="F19">
-        <v>5.661009731701824</v>
+        <v>30.42174775104172</v>
       </c>
       <c r="G19">
-        <v>1.733826449109586</v>
+        <v>0.0004278932086372341</v>
       </c>
       <c r="H19">
-        <v>3.213880949971326</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.8141874210795947</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>2.532050990508779</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>41.40150755792331</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>9.620230281550619</v>
+      </c>
+      <c r="O19">
+        <v>25.68723297486162</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1156,40 +1270,46 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.08144337302529792</v>
+        <v>0.3566920190299214</v>
       </c>
       <c r="D20">
-        <v>0.3413574317205033</v>
+        <v>0.9075713019608997</v>
       </c>
       <c r="E20">
-        <v>3.33812721681096</v>
+        <v>0.03344107621643566</v>
       </c>
       <c r="F20">
-        <v>5.661009731701824</v>
+        <v>30.42174775104172</v>
       </c>
       <c r="G20">
-        <v>1.733826449109586</v>
+        <v>0.0004278932086372341</v>
       </c>
       <c r="H20">
-        <v>3.213880949971326</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.8141874210795947</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>2.532050990508779</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>41.40150755792331</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>9.620230281550619</v>
+      </c>
+      <c r="O20">
+        <v>25.68723297486162</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1197,40 +1317,46 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.08144337302529792</v>
+        <v>0.3566920190299214</v>
       </c>
       <c r="D21">
-        <v>0.3413574317205033</v>
+        <v>0.9075713019608997</v>
       </c>
       <c r="E21">
-        <v>3.33812721681096</v>
+        <v>0.03344107621643566</v>
       </c>
       <c r="F21">
-        <v>5.661009731701824</v>
+        <v>30.42174775104172</v>
       </c>
       <c r="G21">
-        <v>1.733826449109586</v>
+        <v>0.0004278932086372341</v>
       </c>
       <c r="H21">
-        <v>3.213880949971326</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.8141874210795947</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>2.532050990508779</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>41.40150755792331</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>9.620230281550619</v>
+      </c>
+      <c r="O21">
+        <v>25.68723297486162</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1238,40 +1364,46 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.08144337302529792</v>
+        <v>0.3566920190299214</v>
       </c>
       <c r="D22">
-        <v>0.3413574317205033</v>
+        <v>0.9075713019608997</v>
       </c>
       <c r="E22">
-        <v>3.33812721681096</v>
+        <v>0.03344107621643566</v>
       </c>
       <c r="F22">
-        <v>5.661009731701824</v>
+        <v>30.42174775104172</v>
       </c>
       <c r="G22">
-        <v>1.733826449109586</v>
+        <v>0.0004278932086372341</v>
       </c>
       <c r="H22">
-        <v>3.213880949971326</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.8141874210795947</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>2.532050990508779</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>41.40150755792331</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>9.620230281550619</v>
+      </c>
+      <c r="O22">
+        <v>25.68723297486162</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1279,40 +1411,46 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.08144337302529792</v>
+        <v>0.3566920190299214</v>
       </c>
       <c r="D23">
-        <v>0.3413574317205033</v>
+        <v>0.9075713019608997</v>
       </c>
       <c r="E23">
-        <v>3.33812721681096</v>
+        <v>0.03344107621643566</v>
       </c>
       <c r="F23">
-        <v>5.661009731701824</v>
+        <v>30.42174775104172</v>
       </c>
       <c r="G23">
-        <v>1.733826449109586</v>
+        <v>0.0004278932086372341</v>
       </c>
       <c r="H23">
-        <v>3.213880949971326</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.8141874210795947</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>2.532050990508779</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>41.40150755792331</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>9.620230281550619</v>
+      </c>
+      <c r="O23">
+        <v>25.68723297486162</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1320,40 +1458,46 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.08144337302529792</v>
+        <v>0.3566920190299214</v>
       </c>
       <c r="D24">
-        <v>0.3413574317205033</v>
+        <v>0.9075713019608997</v>
       </c>
       <c r="E24">
-        <v>3.33812721681096</v>
+        <v>0.03344107621643566</v>
       </c>
       <c r="F24">
-        <v>5.661009731701824</v>
+        <v>30.42174775104172</v>
       </c>
       <c r="G24">
-        <v>1.733826449109586</v>
+        <v>0.0004278932086372341</v>
       </c>
       <c r="H24">
-        <v>3.213880949971326</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.8141874210795947</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>2.532050990508779</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>41.40150755792331</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>9.620230281550619</v>
+      </c>
+      <c r="O24">
+        <v>25.68723297486162</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1361,37 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.08144337302529792</v>
+        <v>0.3566920190299214</v>
       </c>
       <c r="D25">
-        <v>0.3413574317205033</v>
+        <v>0.9075713019608997</v>
       </c>
       <c r="E25">
-        <v>3.33812721681096</v>
+        <v>0.03344107621643566</v>
       </c>
       <c r="F25">
-        <v>5.661009731701824</v>
+        <v>30.42174775104172</v>
       </c>
       <c r="G25">
-        <v>1.733826449109586</v>
+        <v>0.0004278932086372341</v>
       </c>
       <c r="H25">
-        <v>3.213880949971326</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.8141874210795947</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>2.532050990508779</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>41.40150755792331</v>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>9.620230281550619</v>
+      </c>
+      <c r="O25">
+        <v>25.68723297486162</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_21/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_21/res_line/pl_mw.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1958535659872211</v>
+        <v>0.1452378996883112</v>
       </c>
       <c r="D2">
-        <v>0.4853243989171006</v>
+        <v>0.03130513624267195</v>
       </c>
       <c r="E2">
-        <v>0.02653191678832201</v>
+        <v>0.2016790757597349</v>
       </c>
       <c r="F2">
-        <v>16.91529272000838</v>
+        <v>0.6336014106462784</v>
       </c>
       <c r="G2">
-        <v>0.0005893319122801351</v>
+        <v>0.000781062399584191</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.4603735044198203</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>2.834930719169563</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.9491801665584561</v>
       </c>
       <c r="N2">
-        <v>7.66312166460591</v>
+        <v>0.6414463723479926</v>
       </c>
       <c r="O2">
-        <v>14.2151172044594</v>
+        <v>1.832984822629641</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1573447216296842</v>
+        <v>0.1256278653781635</v>
       </c>
       <c r="D3">
-        <v>0.388320209303231</v>
+        <v>0.02852344039797572</v>
       </c>
       <c r="E3">
-        <v>0.02513238691291875</v>
+        <v>0.1757050675055964</v>
       </c>
       <c r="F3">
-        <v>13.74989855992794</v>
+        <v>0.5751838324529999</v>
       </c>
       <c r="G3">
-        <v>0.0006345845807815979</v>
+        <v>0.0007857415181141722</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.377806368380746</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>2.465229200556706</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.8215330657882873</v>
       </c>
       <c r="N3">
-        <v>6.74968365211538</v>
+        <v>0.6666512935718245</v>
       </c>
       <c r="O3">
-        <v>11.52842487012313</v>
+        <v>1.68796866740567</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.13703962090365</v>
+        <v>0.1137006808100267</v>
       </c>
       <c r="D4">
-        <v>0.3375329672957861</v>
+        <v>0.02680998873159979</v>
       </c>
       <c r="E4">
-        <v>0.02447100027532656</v>
+        <v>0.1602038594345316</v>
       </c>
       <c r="F4">
-        <v>12.09517681608224</v>
+        <v>0.5407139659867894</v>
       </c>
       <c r="G4">
-        <v>0.0006600433888113679</v>
+        <v>0.0007887048779297831</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.3347870900256282</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>2.238768736372549</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.7438139085598223</v>
       </c>
       <c r="N4">
-        <v>6.187481969422947</v>
+        <v>0.6831762054713622</v>
       </c>
       <c r="O4">
-        <v>10.12354381290243</v>
+        <v>1.603546397271373</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1293131973011441</v>
+        <v>0.1088648898894036</v>
       </c>
       <c r="D5">
-        <v>0.3182592898891698</v>
+        <v>0.02611026742840039</v>
       </c>
       <c r="E5">
-        <v>0.02423691555134866</v>
+        <v>0.1539873919569885</v>
       </c>
       <c r="F5">
-        <v>11.4685942822876</v>
+        <v>0.5269920739670511</v>
       </c>
       <c r="G5">
-        <v>0.000670082067664428</v>
+        <v>0.0007899357324991128</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.3185308503029916</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>2.146577833249125</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.7122826077397093</v>
       </c>
       <c r="N5">
-        <v>5.958052239810513</v>
+        <v>0.690164940360539</v>
       </c>
       <c r="O5">
-        <v>9.591437554806959</v>
+        <v>1.570220014958863</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1280575623504063</v>
+        <v>0.1080632885671235</v>
       </c>
       <c r="D6">
-        <v>0.3151294410100292</v>
+        <v>0.0259939874656645</v>
       </c>
       <c r="E6">
-        <v>0.02419989974833214</v>
+        <v>0.1529608805952734</v>
       </c>
       <c r="F6">
-        <v>11.36694125643891</v>
+        <v>0.5247324283516193</v>
       </c>
       <c r="G6">
-        <v>0.0006717336116748257</v>
+        <v>0.0007901415350918129</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3158955080100867</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>2.131274090604251</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.7070546008900749</v>
       </c>
       <c r="N6">
-        <v>5.919936152110552</v>
+        <v>0.6913405428869766</v>
       </c>
       <c r="O6">
-        <v>9.50510345779557</v>
+        <v>1.564748815575683</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1369334749393545</v>
+        <v>0.113635368892389</v>
       </c>
       <c r="D7">
-        <v>0.3372680083488007</v>
+        <v>0.02680055814206739</v>
       </c>
       <c r="E7">
-        <v>0.0244677134538307</v>
+        <v>0.1601196307350747</v>
       </c>
       <c r="F7">
-        <v>12.08655665865393</v>
+        <v>0.5405276268096273</v>
       </c>
       <c r="G7">
-        <v>0.0006601799001974071</v>
+        <v>0.0007887213827930672</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.3345633097041372</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>2.237525091790758</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.7433881322009412</v>
       </c>
       <c r="N7">
-        <v>6.184389112219776</v>
+        <v>0.6832694383096438</v>
       </c>
       <c r="O7">
-        <v>10.1162239662936</v>
+        <v>1.603092696457281</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1816417391804777</v>
+        <v>0.1384503929597969</v>
       </c>
       <c r="D8">
-        <v>0.4494057534092946</v>
+        <v>0.03034708112539164</v>
       </c>
       <c r="E8">
-        <v>0.02599652291735133</v>
+        <v>0.1926230064893062</v>
       </c>
       <c r="F8">
-        <v>15.74333931274441</v>
+        <v>0.6131520404586581</v>
       </c>
       <c r="G8">
-        <v>0.0006056237097094019</v>
+        <v>0.0007826573389013446</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.4297692220992104</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>2.707319981295456</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.9050154128731691</v>
       </c>
       <c r="N8">
-        <v>7.348453399592699</v>
+        <v>0.6499136759237274</v>
       </c>
       <c r="O8">
-        <v>13.22046321795645</v>
+        <v>1.781972031719789</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.3566920190299214</v>
+        <v>0.1882021483826293</v>
       </c>
       <c r="D9">
-        <v>0.9075713019608997</v>
+        <v>0.03726373441975994</v>
       </c>
       <c r="E9">
-        <v>0.03344107621643566</v>
+        <v>0.2604940293798705</v>
       </c>
       <c r="F9">
-        <v>30.42174775104172</v>
+        <v>0.7679669318753781</v>
       </c>
       <c r="G9">
-        <v>0.0004278932086372341</v>
+        <v>0.0007714567242553942</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.8141874210795947</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>3.634920541847066</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>1.228415964554472</v>
       </c>
       <c r="N9">
-        <v>9.620230281550619</v>
+        <v>0.5932634345903764</v>
       </c>
       <c r="O9">
-        <v>25.68723297486162</v>
+        <v>2.173505378370066</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.3566920190299214</v>
+        <v>0.2257040251987377</v>
       </c>
       <c r="D10">
-        <v>0.9075713019608997</v>
+        <v>0.04233124964866875</v>
       </c>
       <c r="E10">
-        <v>0.03344107621643566</v>
+        <v>0.3137675474508086</v>
       </c>
       <c r="F10">
-        <v>30.42174775104172</v>
+        <v>0.8912190551136661</v>
       </c>
       <c r="G10">
-        <v>0.0004278932086372341</v>
+        <v>0.0007636099156827324</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.8141874210795947</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>4.323464314779699</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>1.471838204528567</v>
       </c>
       <c r="N10">
-        <v>9.620230281550619</v>
+        <v>0.5576353767592721</v>
       </c>
       <c r="O10">
-        <v>25.68723297486162</v>
+        <v>2.492174538374599</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.3566920190299214</v>
+        <v>0.2430397126156549</v>
       </c>
       <c r="D11">
-        <v>0.9075713019608997</v>
+        <v>0.04463588295838861</v>
       </c>
       <c r="E11">
-        <v>0.03344107621643566</v>
+        <v>0.3389631811093068</v>
       </c>
       <c r="F11">
-        <v>30.42174775104172</v>
+        <v>0.9498286160386726</v>
       </c>
       <c r="G11">
-        <v>0.0004278932086372341</v>
+        <v>0.0007601138414002207</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.8141874210795947</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>4.639008285055581</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>1.584305302320544</v>
       </c>
       <c r="N11">
-        <v>9.620230281550619</v>
+        <v>0.5428873173574686</v>
       </c>
       <c r="O11">
-        <v>25.68723297486162</v>
+        <v>2.645379626300041</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.3566920190299214</v>
+        <v>0.2496501722354338</v>
       </c>
       <c r="D12">
-        <v>0.9075713019608997</v>
+        <v>0.04550871477361085</v>
       </c>
       <c r="E12">
-        <v>0.03344107621643566</v>
+        <v>0.3486627030517155</v>
       </c>
       <c r="F12">
-        <v>30.42174775104172</v>
+        <v>0.9724311950292872</v>
       </c>
       <c r="G12">
-        <v>0.0004278932086372341</v>
+        <v>0.000758799696009462</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.8141874210795947</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>4.758900798863124</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>1.627185295529841</v>
       </c>
       <c r="N12">
-        <v>9.620230281550619</v>
+        <v>0.5375270959620124</v>
       </c>
       <c r="O12">
-        <v>25.68723297486162</v>
+        <v>2.704716567034723</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.3566920190299214</v>
+        <v>0.2482243507463977</v>
       </c>
       <c r="D13">
-        <v>0.9075713019608997</v>
+        <v>0.04532072608382265</v>
       </c>
       <c r="E13">
-        <v>0.03344107621643566</v>
+        <v>0.3465663446153826</v>
       </c>
       <c r="F13">
-        <v>30.42174775104172</v>
+        <v>0.9675444370411981</v>
       </c>
       <c r="G13">
-        <v>0.0004278932086372341</v>
+        <v>0.0007590823012647384</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.8141874210795947</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>4.733060716418379</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>1.617936662479934</v>
       </c>
       <c r="N13">
-        <v>9.620230281550619</v>
+        <v>0.5386712811361036</v>
       </c>
       <c r="O13">
-        <v>25.68723297486162</v>
+        <v>2.691876218169796</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.3566920190299214</v>
+        <v>0.2435826039884859</v>
       </c>
       <c r="D14">
-        <v>0.9075713019608997</v>
+        <v>0.04470768774652356</v>
       </c>
       <c r="E14">
-        <v>0.03344107621643566</v>
+        <v>0.3397578671507162</v>
       </c>
       <c r="F14">
-        <v>30.42174775104172</v>
+        <v>0.95167969933064</v>
       </c>
       <c r="G14">
-        <v>0.0004278932086372341</v>
+        <v>0.0007600055356363621</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.8141874210795947</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>4.648863422472346</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>1.587826975791003</v>
       </c>
       <c r="N14">
-        <v>9.620230281550619</v>
+        <v>0.5424417397487318</v>
       </c>
       <c r="O14">
-        <v>25.68723297486162</v>
+        <v>2.650234002484382</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.3566920190299214</v>
+        <v>0.2407455569592258</v>
       </c>
       <c r="D15">
-        <v>0.9075713019608997</v>
+        <v>0.04433220582650677</v>
       </c>
       <c r="E15">
-        <v>0.03344107621643566</v>
+        <v>0.3356087527767926</v>
       </c>
       <c r="F15">
-        <v>30.42174775104172</v>
+        <v>0.942016614692804</v>
       </c>
       <c r="G15">
-        <v>0.0004278932086372341</v>
+        <v>0.0007605722863597979</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.8141874210795947</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>4.597344769133656</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>1.569423151187138</v>
       </c>
       <c r="N15">
-        <v>9.620230281550619</v>
+        <v>0.544780955053902</v>
       </c>
       <c r="O15">
-        <v>25.68723297486162</v>
+        <v>2.624903297239939</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.3566920190299214</v>
+        <v>0.2245771620940076</v>
       </c>
       <c r="D16">
-        <v>0.9075713019608997</v>
+        <v>0.04218064114591158</v>
       </c>
       <c r="E16">
-        <v>0.03344107621643566</v>
+        <v>0.3121419827104006</v>
       </c>
       <c r="F16">
-        <v>30.42174775104172</v>
+        <v>0.8874435116384518</v>
       </c>
       <c r="G16">
-        <v>0.0004278932086372341</v>
+        <v>0.0007638398019820142</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.8141874210795947</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>4.302895249836581</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>1.464526584325824</v>
       </c>
       <c r="N16">
-        <v>9.620230281550619</v>
+        <v>0.5586297909020175</v>
       </c>
       <c r="O16">
-        <v>25.68723297486162</v>
+        <v>2.482339448967082</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.3566920190299214</v>
+        <v>0.2147332479718642</v>
       </c>
       <c r="D17">
-        <v>0.9075713019608997</v>
+        <v>0.04086070834939193</v>
       </c>
       <c r="E17">
-        <v>0.03344107621643566</v>
+        <v>0.2980058736640885</v>
       </c>
       <c r="F17">
-        <v>30.42174775104172</v>
+        <v>0.8546450373761871</v>
       </c>
       <c r="G17">
-        <v>0.0004278932086372341</v>
+        <v>0.0007658625711767849</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.8141874210795947</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>4.122901821955622</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>1.400648437512046</v>
       </c>
       <c r="N17">
-        <v>9.620230281550619</v>
+        <v>0.5675094448319555</v>
       </c>
       <c r="O17">
-        <v>25.68723297486162</v>
+        <v>2.397085240333922</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.3566920190299214</v>
+        <v>0.2090968610892361</v>
       </c>
       <c r="D18">
-        <v>0.9075713019608997</v>
+        <v>0.04010144730465015</v>
       </c>
       <c r="E18">
-        <v>0.03344107621643566</v>
+        <v>0.2899643093667734</v>
       </c>
       <c r="F18">
-        <v>30.42174775104172</v>
+        <v>0.8360166649026581</v>
       </c>
       <c r="G18">
-        <v>0.0004278932086372341</v>
+        <v>0.0007670329836999445</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.8141874210795947</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>4.01958842661503</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>1.364067811300941</v>
       </c>
       <c r="N18">
-        <v>9.620230281550619</v>
+        <v>0.5727531943933144</v>
       </c>
       <c r="O18">
-        <v>25.68723297486162</v>
+        <v>2.348816100031854</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.3566920190299214</v>
+        <v>0.2071926905657193</v>
       </c>
       <c r="D19">
-        <v>0.9075713019608997</v>
+        <v>0.0398443566233766</v>
       </c>
       <c r="E19">
-        <v>0.03344107621643566</v>
+        <v>0.287256300524902</v>
       </c>
       <c r="F19">
-        <v>30.42174775104172</v>
+        <v>0.8297487784591908</v>
       </c>
       <c r="G19">
-        <v>0.0004278932086372341</v>
+        <v>0.0007674304862818431</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.8141874210795947</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>3.984643052263891</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>1.351708573525471</v>
       </c>
       <c r="N19">
-        <v>9.620230281550619</v>
+        <v>0.5745516380773665</v>
       </c>
       <c r="O19">
-        <v>25.68723297486162</v>
+        <v>2.332600735054569</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.3566920190299214</v>
+        <v>0.2157784599691865</v>
       </c>
       <c r="D20">
-        <v>0.9075713019608997</v>
+        <v>0.04100122335869116</v>
       </c>
       <c r="E20">
-        <v>0.03344107621643566</v>
+        <v>0.2995013193123697</v>
       </c>
       <c r="F20">
-        <v>30.42174775104172</v>
+        <v>0.8581117207528592</v>
       </c>
       <c r="G20">
-        <v>0.0004278932086372341</v>
+        <v>0.0007656465283286603</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.8141874210795947</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>4.142039795329993</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>1.407431483865068</v>
       </c>
       <c r="N20">
-        <v>9.620230281550619</v>
+        <v>0.5665499703075483</v>
       </c>
       <c r="O20">
-        <v>25.68723297486162</v>
+        <v>2.406080382087112</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.3566920190299214</v>
+        <v>0.2449447027485832</v>
       </c>
       <c r="D21">
-        <v>0.9075713019608997</v>
+        <v>0.0448877470297333</v>
       </c>
       <c r="E21">
-        <v>0.03344107621643566</v>
+        <v>0.3417532093579041</v>
       </c>
       <c r="F21">
-        <v>30.42174775104172</v>
+        <v>0.9563281123577525</v>
       </c>
       <c r="G21">
-        <v>0.0004278932086372341</v>
+        <v>0.0007597341018034517</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.8141874210795947</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>4.673582693600963</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>1.596662665045201</v>
       </c>
       <c r="N21">
-        <v>9.620230281550619</v>
+        <v>0.5413280470736908</v>
       </c>
       <c r="O21">
-        <v>25.68723297486162</v>
+        <v>2.662428317780979</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.3566920190299214</v>
+        <v>0.2642767798617314</v>
       </c>
       <c r="D22">
-        <v>0.9075713019608997</v>
+        <v>0.04742861191940762</v>
       </c>
       <c r="E22">
-        <v>0.03344107621643566</v>
+        <v>0.3703019214454102</v>
       </c>
       <c r="F22">
-        <v>30.42174775104172</v>
+        <v>1.022921433700944</v>
       </c>
       <c r="G22">
-        <v>0.0004278932086372341</v>
+        <v>0.0007559263402581119</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.8141874210795947</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>5.023361633155218</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>1.722055612365395</v>
       </c>
       <c r="N22">
-        <v>9.620230281550619</v>
+        <v>0.5261606515116881</v>
       </c>
       <c r="O22">
-        <v>25.68723297486162</v>
+        <v>2.837741507743743</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.3566920190299214</v>
+        <v>0.2539319931313742</v>
       </c>
       <c r="D23">
-        <v>0.9075713019608997</v>
+        <v>0.04607235723393188</v>
       </c>
       <c r="E23">
-        <v>0.03344107621643566</v>
+        <v>0.3549721817790399</v>
       </c>
       <c r="F23">
-        <v>30.42174775104172</v>
+        <v>0.9871442416838221</v>
       </c>
       <c r="G23">
-        <v>0.0004278932086372341</v>
+        <v>0.0007579537486363495</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.8141874210795947</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>4.8364353133706</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>1.65495878902297</v>
       </c>
       <c r="N23">
-        <v>9.620230281550619</v>
+        <v>0.5341301170786963</v>
       </c>
       <c r="O23">
-        <v>25.68723297486162</v>
+        <v>2.743413831489391</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.3566920190299214</v>
+        <v>0.2153058484103383</v>
       </c>
       <c r="D24">
-        <v>0.9075713019608997</v>
+        <v>0.04093769782799939</v>
       </c>
       <c r="E24">
-        <v>0.03344107621643566</v>
+        <v>0.2988249636114659</v>
       </c>
       <c r="F24">
-        <v>30.42174775104172</v>
+        <v>0.8565437265187228</v>
       </c>
       <c r="G24">
-        <v>0.0004278932086372341</v>
+        <v>0.0007657441778886769</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.8141874210795947</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>4.133387001836411</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>1.404364423913535</v>
       </c>
       <c r="N24">
-        <v>9.620230281550619</v>
+        <v>0.5669833177603252</v>
       </c>
       <c r="O24">
-        <v>25.68723297486162</v>
+        <v>2.402011369284224</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.3566920190299214</v>
+        <v>0.1745981754335304</v>
       </c>
       <c r="D25">
-        <v>0.9075713019608997</v>
+        <v>0.03539580179163693</v>
       </c>
       <c r="E25">
-        <v>0.03344107621643566</v>
+        <v>0.2416036285772734</v>
       </c>
       <c r="F25">
-        <v>30.42174775104172</v>
+        <v>0.7245656613312406</v>
       </c>
       <c r="G25">
-        <v>0.0004278932086372341</v>
+        <v>0.000774416672726464</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.8141874210795947</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>3.3829899745229</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>1.140051693437954</v>
       </c>
       <c r="N25">
-        <v>9.620230281550619</v>
+        <v>0.6075867841210538</v>
       </c>
       <c r="O25">
-        <v>25.68723297486162</v>
+        <v>2.062614937105593</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_21/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_21/res_line/pl_mw.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1452378996883112</v>
+        <v>0.0494028206232997</v>
       </c>
       <c r="D2">
-        <v>0.03130513624267195</v>
+        <v>0.01849215619530753</v>
       </c>
       <c r="E2">
-        <v>0.2016790757597349</v>
+        <v>0.107369397667668</v>
       </c>
       <c r="F2">
-        <v>0.6336014106462784</v>
+        <v>0.6985174721780538</v>
       </c>
       <c r="G2">
-        <v>0.000781062399584191</v>
+        <v>0.002411493739661308</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>2.834930719169563</v>
+        <v>0.9142017256984332</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.9491801665584561</v>
+        <v>0.3447736560447296</v>
       </c>
       <c r="N2">
-        <v>0.6414463723479926</v>
+        <v>1.103131043754892</v>
       </c>
       <c r="O2">
-        <v>1.832984822629641</v>
+        <v>2.354599466279382</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1256278653781635</v>
+        <v>0.04386124092449961</v>
       </c>
       <c r="D3">
-        <v>0.02852344039797572</v>
+        <v>0.01751524613989019</v>
       </c>
       <c r="E3">
-        <v>0.1757050675055964</v>
+        <v>0.1015636426510795</v>
       </c>
       <c r="F3">
-        <v>0.5751838324529999</v>
+        <v>0.6901919500866853</v>
       </c>
       <c r="G3">
-        <v>0.0007857415181141722</v>
+        <v>0.002414581642825512</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>2.465229200556706</v>
+        <v>0.8027137754717444</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.8215330657882873</v>
+        <v>0.3090260743027002</v>
       </c>
       <c r="N3">
-        <v>0.6666512935718245</v>
+        <v>1.114037838243455</v>
       </c>
       <c r="O3">
-        <v>1.68796866740567</v>
+        <v>2.341576173211934</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1137006808100267</v>
+        <v>0.0404731889614709</v>
       </c>
       <c r="D4">
-        <v>0.02680998873159979</v>
+        <v>0.01691130418702258</v>
       </c>
       <c r="E4">
-        <v>0.1602038594345316</v>
+        <v>0.09809643650871891</v>
       </c>
       <c r="F4">
-        <v>0.5407139659867894</v>
+        <v>0.6856156552827741</v>
       </c>
       <c r="G4">
-        <v>0.0007887048779297831</v>
+        <v>0.002416578722254152</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>2.238768736372549</v>
+        <v>0.7341795315847719</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.7438139085598223</v>
+        <v>0.2871659319520035</v>
       </c>
       <c r="N4">
-        <v>0.6831762054713622</v>
+        <v>1.121206729647916</v>
       </c>
       <c r="O4">
-        <v>1.603546397271373</v>
+        <v>2.335385109436857</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1088648898894036</v>
+        <v>0.03909615488895213</v>
       </c>
       <c r="D5">
-        <v>0.02611026742840039</v>
+        <v>0.0166641772647047</v>
       </c>
       <c r="E5">
-        <v>0.1539873919569885</v>
+        <v>0.09670779273211139</v>
       </c>
       <c r="F5">
-        <v>0.5269920739670511</v>
+        <v>0.6838851389123519</v>
       </c>
       <c r="G5">
-        <v>0.0007899357324991128</v>
+        <v>0.002417418048042136</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>2.146577833249125</v>
+        <v>0.7062322367071943</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.7122826077397093</v>
+        <v>0.2782800785363335</v>
       </c>
       <c r="N5">
-        <v>0.690164940360539</v>
+        <v>1.124246844273721</v>
       </c>
       <c r="O5">
-        <v>1.570220014958863</v>
+        <v>2.333314982129366</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1080632885671235</v>
+        <v>0.03886771772241104</v>
       </c>
       <c r="D6">
-        <v>0.0259939874656645</v>
+        <v>0.01662308124809186</v>
       </c>
       <c r="E6">
-        <v>0.1529608805952734</v>
+        <v>0.09647866783028292</v>
       </c>
       <c r="F6">
-        <v>0.5247324283516193</v>
+        <v>0.6836058936459395</v>
       </c>
       <c r="G6">
-        <v>0.0007901415350918129</v>
+        <v>0.002417558959779117</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>2.131274090604251</v>
+        <v>0.7015904935571484</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.7070546008900749</v>
+        <v>0.2768059367284508</v>
       </c>
       <c r="N6">
-        <v>0.6913405428869766</v>
+        <v>1.124758825056389</v>
       </c>
       <c r="O6">
-        <v>1.564748815575683</v>
+        <v>2.332998551684881</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.113635368892389</v>
+        <v>0.04045460314949878</v>
       </c>
       <c r="D7">
-        <v>0.02680055814206739</v>
+        <v>0.0169079754340693</v>
       </c>
       <c r="E7">
-        <v>0.1601196307350747</v>
+        <v>0.09807761084293531</v>
       </c>
       <c r="F7">
-        <v>0.5405276268096273</v>
+        <v>0.685591773340704</v>
       </c>
       <c r="G7">
-        <v>0.0007887213827930672</v>
+        <v>0.002416589938364428</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>2.237525091790758</v>
+        <v>0.7338027001553371</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.7433881322009412</v>
+        <v>0.2870460038690297</v>
       </c>
       <c r="N7">
-        <v>0.6832694383096438</v>
+        <v>1.121247248916205</v>
       </c>
       <c r="O7">
-        <v>1.603092696457281</v>
+        <v>2.335355359244261</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1384503929597969</v>
+        <v>0.0474890597087807</v>
       </c>
       <c r="D8">
-        <v>0.03034708112539164</v>
+        <v>0.01815618287676202</v>
       </c>
       <c r="E8">
-        <v>0.1926230064893062</v>
+        <v>0.1053471686378629</v>
       </c>
       <c r="F8">
-        <v>0.6131520404586581</v>
+        <v>0.6955354675602905</v>
       </c>
       <c r="G8">
-        <v>0.0007826573389013446</v>
+        <v>0.002412537513711639</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>2.707319981295456</v>
+        <v>0.8757779669547858</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.9050154128731691</v>
+        <v>0.332429371143661</v>
       </c>
       <c r="N8">
-        <v>0.6499136759237274</v>
+        <v>1.106793741737818</v>
       </c>
       <c r="O8">
-        <v>1.781972031719789</v>
+        <v>2.349733628482909</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.1882021483826293</v>
+        <v>0.06140034188047139</v>
       </c>
       <c r="D9">
-        <v>0.03726373441975994</v>
+        <v>0.02057053502860384</v>
       </c>
       <c r="E9">
-        <v>0.2604940293798705</v>
+        <v>0.1203892729417575</v>
       </c>
       <c r="F9">
-        <v>0.7679669318753781</v>
+        <v>0.7193015153609537</v>
       </c>
       <c r="G9">
-        <v>0.0007714567242553942</v>
+        <v>0.002405389270951043</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>3.634920541847066</v>
+        <v>1.153518834199531</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.228415964554472</v>
+        <v>0.4221394474421913</v>
       </c>
       <c r="N9">
-        <v>0.5932634345903764</v>
+        <v>1.0821951469472</v>
       </c>
       <c r="O9">
-        <v>2.173505378370066</v>
+        <v>2.392311774403794</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.2257040251987377</v>
+        <v>0.07169546622115774</v>
       </c>
       <c r="D10">
-        <v>0.04233124964866875</v>
+        <v>0.02232320280938183</v>
       </c>
       <c r="E10">
-        <v>0.3137675474508086</v>
+        <v>0.1319386693923832</v>
       </c>
       <c r="F10">
-        <v>0.8912190551136661</v>
+        <v>0.7393895485294024</v>
       </c>
       <c r="G10">
-        <v>0.0007636099156827324</v>
+        <v>0.002400619240189918</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>4.323464314779699</v>
+        <v>1.35713731751423</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.471838204528567</v>
+        <v>0.4885010977999684</v>
       </c>
       <c r="N10">
-        <v>0.5576353767592721</v>
+        <v>1.066404232780982</v>
       </c>
       <c r="O10">
-        <v>2.492174538374599</v>
+        <v>2.432450070841099</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.2430397126156549</v>
+        <v>0.07639593772768194</v>
       </c>
       <c r="D11">
-        <v>0.04463588295838861</v>
+        <v>0.02311578368220779</v>
       </c>
       <c r="E11">
-        <v>0.3389631811093068</v>
+        <v>0.1373049757959777</v>
       </c>
       <c r="F11">
-        <v>0.9498286160386726</v>
+        <v>0.7491043898836693</v>
       </c>
       <c r="G11">
-        <v>0.0007601138414002207</v>
+        <v>0.002398552772291443</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>4.639008285055581</v>
+        <v>1.449669001012012</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.584305302320544</v>
+        <v>0.5187928424108321</v>
       </c>
       <c r="N11">
-        <v>0.5428873173574686</v>
+        <v>1.059715861105538</v>
       </c>
       <c r="O11">
-        <v>2.645379626300041</v>
+        <v>2.452652551826418</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.2496501722354338</v>
+        <v>0.0781783915498977</v>
       </c>
       <c r="D12">
-        <v>0.04550871477361085</v>
+        <v>0.02341521841128724</v>
       </c>
       <c r="E12">
-        <v>0.3486627030517155</v>
+        <v>0.139353528304639</v>
       </c>
       <c r="F12">
-        <v>0.9724311950292872</v>
+        <v>0.7528664842072033</v>
       </c>
       <c r="G12">
-        <v>0.000758799696009462</v>
+        <v>0.002397785048334985</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>4.758900798863124</v>
+        <v>1.484693784582419</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.627185295529841</v>
+        <v>0.5302785973174622</v>
       </c>
       <c r="N12">
-        <v>0.5375270959620124</v>
+        <v>1.057254342187044</v>
       </c>
       <c r="O12">
-        <v>2.704716567034723</v>
+        <v>2.460583594538718</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.2482243507463977</v>
+        <v>0.07779439731173454</v>
       </c>
       <c r="D13">
-        <v>0.04532072608382265</v>
+        <v>0.02335076116869317</v>
       </c>
       <c r="E13">
-        <v>0.3465663446153826</v>
+        <v>0.1389115998071091</v>
       </c>
       <c r="F13">
-        <v>0.9675444370411981</v>
+        <v>0.7520525394815252</v>
       </c>
       <c r="G13">
-        <v>0.0007590823012647384</v>
+        <v>0.002397949734164428</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>4.733060716418379</v>
+        <v>1.477151255647641</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.617936662479934</v>
+        <v>0.5278042697825356</v>
       </c>
       <c r="N13">
-        <v>0.5386712811361036</v>
+        <v>1.057781305952389</v>
       </c>
       <c r="O13">
-        <v>2.691876218169796</v>
+        <v>2.458862992370342</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.2435826039884859</v>
+        <v>0.07654253132216127</v>
       </c>
       <c r="D14">
-        <v>0.04470768774652356</v>
+        <v>0.02314043247028508</v>
       </c>
       <c r="E14">
-        <v>0.3397578671507162</v>
+        <v>0.1374731801681008</v>
       </c>
       <c r="F14">
-        <v>0.95167969933064</v>
+        <v>0.7494122281951832</v>
       </c>
       <c r="G14">
-        <v>0.0007600055356363621</v>
+        <v>0.002398489314873251</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>4.648863422472346</v>
+        <v>1.452550817871895</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.587826975791003</v>
+        <v>0.5197374829166819</v>
       </c>
       <c r="N14">
-        <v>0.5424417397487318</v>
+        <v>1.05951192279597</v>
       </c>
       <c r="O14">
-        <v>2.650234002484382</v>
+        <v>2.453299408073519</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.2407455569592258</v>
+        <v>0.07577605172095048</v>
       </c>
       <c r="D15">
-        <v>0.04433220582650677</v>
+        <v>0.02301150851317857</v>
       </c>
       <c r="E15">
-        <v>0.3356087527767926</v>
+        <v>0.1365942571002634</v>
       </c>
       <c r="F15">
-        <v>0.942016614692804</v>
+        <v>0.7478058196200408</v>
       </c>
       <c r="G15">
-        <v>0.0007605722863597979</v>
+        <v>0.002398821749170676</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>4.597344769133656</v>
+        <v>1.437480354904608</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.569423151187138</v>
+        <v>0.5147982885868032</v>
       </c>
       <c r="N15">
-        <v>0.544780955053902</v>
+        <v>1.060581252197913</v>
       </c>
       <c r="O15">
-        <v>2.624903297239939</v>
+        <v>2.449928160742303</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.2245771620940076</v>
+        <v>0.07138862640597665</v>
       </c>
       <c r="D16">
-        <v>0.04218064114591158</v>
+        <v>0.02227130914559439</v>
       </c>
       <c r="E16">
-        <v>0.3121419827104006</v>
+        <v>0.1315902550416226</v>
       </c>
       <c r="F16">
-        <v>0.8874435116384518</v>
+        <v>0.7387662967125408</v>
       </c>
       <c r="G16">
-        <v>0.0007638398019820142</v>
+        <v>0.002400756363951905</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>4.302895249836581</v>
+        <v>1.351088128781839</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.464526584325824</v>
+        <v>0.4865235475484724</v>
       </c>
       <c r="N16">
-        <v>0.5586297909020175</v>
+        <v>1.066851297660278</v>
       </c>
       <c r="O16">
-        <v>2.482339448967082</v>
+        <v>2.43116901187804</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.2147332479718642</v>
+        <v>0.06870149344855747</v>
       </c>
       <c r="D17">
-        <v>0.04086070834939193</v>
+        <v>0.02181599836249148</v>
       </c>
       <c r="E17">
-        <v>0.2980058736640885</v>
+        <v>0.1285494574242563</v>
       </c>
       <c r="F17">
-        <v>0.8546450373761871</v>
+        <v>0.73336880835285</v>
       </c>
       <c r="G17">
-        <v>0.0007658625711767849</v>
+        <v>0.002401969630200752</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>4.122901821955622</v>
+        <v>1.2980639808913</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.400648437512046</v>
+        <v>0.4692044497779193</v>
       </c>
       <c r="N17">
-        <v>0.5675094448319555</v>
+        <v>1.070824575821881</v>
       </c>
       <c r="O17">
-        <v>2.397085240333922</v>
+        <v>2.420159583034007</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.2090968610892361</v>
+        <v>0.06715754046557265</v>
       </c>
       <c r="D18">
-        <v>0.04010144730465015</v>
+        <v>0.02155367290127685</v>
       </c>
       <c r="E18">
-        <v>0.2899643093667734</v>
+        <v>0.126811036403943</v>
       </c>
       <c r="F18">
-        <v>0.8360166649026581</v>
+        <v>0.7303185750534738</v>
       </c>
       <c r="G18">
-        <v>0.0007670329836999445</v>
+        <v>0.002402677209725571</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>4.01958842661503</v>
+        <v>1.267556988999388</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.364067811300941</v>
+        <v>0.4592527015725665</v>
       </c>
       <c r="N18">
-        <v>0.5727531943933144</v>
+        <v>1.073156488585667</v>
       </c>
       <c r="O18">
-        <v>2.348816100031854</v>
+        <v>2.41401008905757</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.2071926905657193</v>
+        <v>0.06663506129076779</v>
       </c>
       <c r="D19">
-        <v>0.0398443566233766</v>
+        <v>0.0214647785854396</v>
       </c>
       <c r="E19">
-        <v>0.287256300524902</v>
+        <v>0.1262242429599567</v>
       </c>
       <c r="F19">
-        <v>0.8297487784591908</v>
+        <v>0.7292951263777638</v>
       </c>
       <c r="G19">
-        <v>0.0007674304862818431</v>
+        <v>0.002402918459101885</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>3.984643052263891</v>
+        <v>1.257226354287411</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.351708573525471</v>
+        <v>0.4558848819007011</v>
       </c>
       <c r="N19">
-        <v>0.5745516380773665</v>
+        <v>1.073954034562483</v>
       </c>
       <c r="O19">
-        <v>2.332600735054569</v>
+        <v>2.411959337709618</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.2157784599691865</v>
+        <v>0.06898737607717464</v>
       </c>
       <c r="D20">
-        <v>0.04100122335869116</v>
+        <v>0.02186451294115699</v>
       </c>
       <c r="E20">
-        <v>0.2995013193123697</v>
+        <v>0.1288720600129238</v>
       </c>
       <c r="F20">
-        <v>0.8581117207528592</v>
+        <v>0.7339377619163514</v>
       </c>
       <c r="G20">
-        <v>0.0007656465283286603</v>
+        <v>0.00240183946844162</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>4.142039795329993</v>
+        <v>1.303709422541374</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.407431483865068</v>
+        <v>0.4710470890538829</v>
       </c>
       <c r="N20">
-        <v>0.5665499703075483</v>
+        <v>1.07039679157549</v>
       </c>
       <c r="O20">
-        <v>2.406080382087112</v>
+        <v>2.421312622687537</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.2449447027485832</v>
+        <v>0.07691016705808806</v>
       </c>
       <c r="D21">
-        <v>0.0448877470297333</v>
+        <v>0.02320223022314849</v>
       </c>
       <c r="E21">
-        <v>0.3417532093579041</v>
+        <v>0.137895230218362</v>
       </c>
       <c r="F21">
-        <v>0.9563281123577525</v>
+        <v>0.7501854881018915</v>
       </c>
       <c r="G21">
-        <v>0.0007597341018034517</v>
+        <v>0.002398330425882551</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>4.673582693600963</v>
+        <v>1.459776978543175</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.596662665045201</v>
+        <v>0.5221064882255035</v>
       </c>
       <c r="N21">
-        <v>0.5413280470736908</v>
+        <v>1.059001665355105</v>
       </c>
       <c r="O21">
-        <v>2.662428317780979</v>
+        <v>2.454925936016963</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.2642767798617314</v>
+        <v>0.08210267518074943</v>
       </c>
       <c r="D22">
-        <v>0.04742861191940762</v>
+        <v>0.02407242546159694</v>
       </c>
       <c r="E22">
-        <v>0.3703019214454102</v>
+        <v>0.1438884010578363</v>
       </c>
       <c r="F22">
-        <v>1.022921433700944</v>
+        <v>0.7612899923584422</v>
       </c>
       <c r="G22">
-        <v>0.0007559263402581119</v>
+        <v>0.002396123312226823</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>5.023361633155218</v>
+        <v>1.561688398218678</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.722055612365395</v>
+        <v>0.5555637956273216</v>
       </c>
       <c r="N22">
-        <v>0.5261606515116881</v>
+        <v>1.051969453745059</v>
       </c>
       <c r="O22">
-        <v>2.837741507743743</v>
+        <v>2.478531533333296</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.2539319931313742</v>
+        <v>0.07933000247155064</v>
       </c>
       <c r="D23">
-        <v>0.04607235723393188</v>
+        <v>0.02360836587409665</v>
       </c>
       <c r="E23">
-        <v>0.3549721817790399</v>
+        <v>0.1406808548732315</v>
       </c>
       <c r="F23">
-        <v>0.9871442416838221</v>
+        <v>0.7553187487980182</v>
       </c>
       <c r="G23">
-        <v>0.0007579537486363495</v>
+        <v>0.002397293422319558</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>4.8364353133706</v>
+        <v>1.507304792717662</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.65495878902297</v>
+        <v>0.5376990212422754</v>
       </c>
       <c r="N23">
-        <v>0.5341301170786963</v>
+        <v>1.055684674376508</v>
       </c>
       <c r="O23">
-        <v>2.743413831489391</v>
+        <v>2.465782517881195</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.2153058484103383</v>
+        <v>0.06885812569213101</v>
       </c>
       <c r="D24">
-        <v>0.04093769782799939</v>
+        <v>0.02184258124636784</v>
       </c>
       <c r="E24">
-        <v>0.2988249636114659</v>
+        <v>0.1287261809611238</v>
       </c>
       <c r="F24">
-        <v>0.8565437265187228</v>
+        <v>0.7336803733965098</v>
       </c>
       <c r="G24">
-        <v>0.0007657441778886769</v>
+        <v>0.002401898283251938</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>4.133387001836411</v>
+        <v>1.301157189000151</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.404364423913535</v>
+        <v>0.4702140155498427</v>
       </c>
       <c r="N24">
-        <v>0.5669833177603252</v>
+        <v>1.070590044488966</v>
       </c>
       <c r="O24">
-        <v>2.402011369284224</v>
+        <v>2.420790772942951</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.1745981754335304</v>
+        <v>0.05762412821110274</v>
       </c>
       <c r="D25">
-        <v>0.03539580179163693</v>
+        <v>0.01992104640781633</v>
       </c>
       <c r="E25">
-        <v>0.2416036285772734</v>
+        <v>0.1162338769982725</v>
       </c>
       <c r="F25">
-        <v>0.7245656613312406</v>
+        <v>0.7124127108677669</v>
       </c>
       <c r="G25">
-        <v>0.000774416672726464</v>
+        <v>0.002407238092294347</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>3.3829899745229</v>
+        <v>1.078457449965811</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1.140051693437954</v>
+        <v>0.3977923958518588</v>
       </c>
       <c r="N25">
-        <v>0.6075867841210538</v>
+        <v>1.088448971057915</v>
       </c>
       <c r="O25">
-        <v>2.062614937105593</v>
+        <v>2.379244413025418</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_21/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_21/res_line/pl_mw.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.0494028206232997</v>
+        <v>0.1452378996883255</v>
       </c>
       <c r="D2">
-        <v>0.01849215619530753</v>
+        <v>0.03130513624256537</v>
       </c>
       <c r="E2">
-        <v>0.107369397667668</v>
+        <v>0.2016790757597136</v>
       </c>
       <c r="F2">
-        <v>0.6985174721780538</v>
+        <v>0.63360141064625</v>
       </c>
       <c r="G2">
-        <v>0.002411493739661308</v>
+        <v>0.0007810623996103241</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.9142017256984332</v>
+        <v>2.834930719169506</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.3447736560447296</v>
+        <v>0.9491801665584489</v>
       </c>
       <c r="N2">
-        <v>1.103131043754892</v>
+        <v>0.6414463723479784</v>
       </c>
       <c r="O2">
-        <v>2.354599466279382</v>
+        <v>1.832984822629555</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.04386124092449961</v>
+        <v>0.1256278653783625</v>
       </c>
       <c r="D3">
-        <v>0.01751524613989019</v>
+        <v>0.02852344039804322</v>
       </c>
       <c r="E3">
-        <v>0.1015636426510795</v>
+        <v>0.1757050675055822</v>
       </c>
       <c r="F3">
-        <v>0.6901919500866853</v>
+        <v>0.5751838324530141</v>
       </c>
       <c r="G3">
-        <v>0.002414581642825512</v>
+        <v>0.0007857415181399037</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.8027137754717444</v>
+        <v>2.465229200556792</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.3090260743027002</v>
+        <v>0.8215330657882873</v>
       </c>
       <c r="N3">
-        <v>1.114037838243455</v>
+        <v>0.6666512935718742</v>
       </c>
       <c r="O3">
-        <v>2.341576173211934</v>
+        <v>1.687968667405727</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.0404731889614709</v>
+        <v>0.1137006808101262</v>
       </c>
       <c r="D4">
-        <v>0.01691130418702258</v>
+        <v>0.02680998873166729</v>
       </c>
       <c r="E4">
-        <v>0.09809643650871891</v>
+        <v>0.1602038594345103</v>
       </c>
       <c r="F4">
-        <v>0.6856156552827741</v>
+        <v>0.5407139659867681</v>
       </c>
       <c r="G4">
-        <v>0.002416578722254152</v>
+        <v>0.0007887048779537893</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.7341795315847719</v>
+        <v>2.238768736372549</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.2871659319520035</v>
+        <v>0.7438139085598294</v>
       </c>
       <c r="N4">
-        <v>1.121206729647916</v>
+        <v>0.683176205471355</v>
       </c>
       <c r="O4">
-        <v>2.335385109436857</v>
+        <v>1.603546397271373</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.03909615488895213</v>
+        <v>0.108864889889503</v>
       </c>
       <c r="D5">
-        <v>0.0166641772647047</v>
+        <v>0.0261102674284075</v>
       </c>
       <c r="E5">
-        <v>0.09670779273211139</v>
+        <v>0.1539873919569885</v>
       </c>
       <c r="F5">
-        <v>0.6838851389123519</v>
+        <v>0.5269920739670724</v>
       </c>
       <c r="G5">
-        <v>0.002417418048042136</v>
+        <v>0.0007899357324821286</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.7062322367071943</v>
+        <v>2.146577833249097</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.2782800785363335</v>
+        <v>0.7122826077397164</v>
       </c>
       <c r="N5">
-        <v>1.124246844273721</v>
+        <v>0.6901649403605958</v>
       </c>
       <c r="O5">
-        <v>2.333314982129366</v>
+        <v>1.570220014958892</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.03886771772241104</v>
+        <v>0.1080632885671235</v>
       </c>
       <c r="D6">
-        <v>0.01662308124809186</v>
+        <v>0.02599398746561477</v>
       </c>
       <c r="E6">
-        <v>0.09647866783028292</v>
+        <v>0.1529608805952591</v>
       </c>
       <c r="F6">
-        <v>0.6836058936459395</v>
+        <v>0.5247324283516335</v>
       </c>
       <c r="G6">
-        <v>0.002417558959779117</v>
+        <v>0.0007901415350673442</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.7015904935571484</v>
+        <v>2.131274090604308</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.2768059367284508</v>
+        <v>0.7070546008900891</v>
       </c>
       <c r="N6">
-        <v>1.124758825056389</v>
+        <v>0.6913405428869055</v>
       </c>
       <c r="O6">
-        <v>2.332998551684881</v>
+        <v>1.56474881557574</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.04045460314949878</v>
+        <v>0.1136353688922895</v>
       </c>
       <c r="D7">
-        <v>0.0169079754340693</v>
+        <v>0.02680055814218463</v>
       </c>
       <c r="E7">
-        <v>0.09807761084293531</v>
+        <v>0.1601196307350676</v>
       </c>
       <c r="F7">
-        <v>0.685591773340704</v>
+        <v>0.5405276268096273</v>
       </c>
       <c r="G7">
-        <v>0.002416589938364428</v>
+        <v>0.0007887213828172442</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.7338027001553371</v>
+        <v>2.237525091790758</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.2870460038690297</v>
+        <v>0.7433881322009412</v>
       </c>
       <c r="N7">
-        <v>1.121247248916205</v>
+        <v>0.6832694383096509</v>
       </c>
       <c r="O7">
-        <v>2.335355359244261</v>
+        <v>1.60309269645731</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.0474890597087807</v>
+        <v>0.1384503929599106</v>
       </c>
       <c r="D8">
-        <v>0.01815618287676202</v>
+        <v>0.03034708112544493</v>
       </c>
       <c r="E8">
-        <v>0.1053471686378629</v>
+        <v>0.1926230064893204</v>
       </c>
       <c r="F8">
-        <v>0.6955354675602905</v>
+        <v>0.6131520404586723</v>
       </c>
       <c r="G8">
-        <v>0.002412537513711639</v>
+        <v>0.0007826573389265166</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.8757779669547858</v>
+        <v>2.707319981295484</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.332429371143661</v>
+        <v>0.905015412873162</v>
       </c>
       <c r="N8">
-        <v>1.106793741737818</v>
+        <v>0.6499136759237203</v>
       </c>
       <c r="O8">
-        <v>2.349733628482909</v>
+        <v>1.781972031719789</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.06140034188047139</v>
+        <v>0.1882021483828424</v>
       </c>
       <c r="D9">
-        <v>0.02057053502860384</v>
+        <v>0.037263734420101</v>
       </c>
       <c r="E9">
-        <v>0.1203892729417575</v>
+        <v>0.2604940293798848</v>
       </c>
       <c r="F9">
-        <v>0.7193015153609537</v>
+        <v>0.7679669318753781</v>
       </c>
       <c r="G9">
-        <v>0.002405389270951043</v>
+        <v>0.0007714567243122725</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.153518834199531</v>
+        <v>3.634920541847123</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.4221394474421913</v>
+        <v>1.228415964554486</v>
       </c>
       <c r="N9">
-        <v>1.0821951469472</v>
+        <v>0.5932634345903622</v>
       </c>
       <c r="O9">
-        <v>2.392311774403794</v>
+        <v>2.173505378370066</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.07169546622115774</v>
+        <v>0.2257040251987661</v>
       </c>
       <c r="D10">
-        <v>0.02232320280938183</v>
+        <v>0.0423312496487398</v>
       </c>
       <c r="E10">
-        <v>0.1319386693923832</v>
+        <v>0.3137675474508086</v>
       </c>
       <c r="F10">
-        <v>0.7393895485294024</v>
+        <v>0.8912190551136803</v>
       </c>
       <c r="G10">
-        <v>0.002400619240189918</v>
+        <v>0.0007636099156508774</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.35713731751423</v>
+        <v>4.323464314779642</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.4885010977999684</v>
+        <v>1.471838204528567</v>
       </c>
       <c r="N10">
-        <v>1.066404232780982</v>
+        <v>0.5576353767592508</v>
       </c>
       <c r="O10">
-        <v>2.432450070841099</v>
+        <v>2.492174538374599</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.07639593772768194</v>
+        <v>0.2430397126155412</v>
       </c>
       <c r="D11">
-        <v>0.02311578368220779</v>
+        <v>0.04463588295815413</v>
       </c>
       <c r="E11">
-        <v>0.1373049757959777</v>
+        <v>0.3389631811092926</v>
       </c>
       <c r="F11">
-        <v>0.7491043898836693</v>
+        <v>0.9498286160386726</v>
       </c>
       <c r="G11">
-        <v>0.002398552772291443</v>
+        <v>0.0007601138414273468</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.449669001012012</v>
+        <v>4.639008285055581</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.5187928424108321</v>
+        <v>1.584305302320544</v>
       </c>
       <c r="N11">
-        <v>1.059715861105538</v>
+        <v>0.5428873173575042</v>
       </c>
       <c r="O11">
-        <v>2.452652551826418</v>
+        <v>2.64537962630007</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.0781783915498977</v>
+        <v>0.2496501722355617</v>
       </c>
       <c r="D12">
-        <v>0.02341521841128724</v>
+        <v>0.04550871477353979</v>
       </c>
       <c r="E12">
-        <v>0.139353528304639</v>
+        <v>0.3486627030517084</v>
       </c>
       <c r="F12">
-        <v>0.7528664842072033</v>
+        <v>0.972431195029273</v>
       </c>
       <c r="G12">
-        <v>0.002397785048334985</v>
+        <v>0.0007587996959770174</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.484693784582419</v>
+        <v>4.758900798863067</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.5302785973174622</v>
+        <v>1.62718529552987</v>
       </c>
       <c r="N12">
-        <v>1.057254342187044</v>
+        <v>0.5375270959620693</v>
       </c>
       <c r="O12">
-        <v>2.460583594538718</v>
+        <v>2.704716567034751</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.07779439731173454</v>
+        <v>0.2482243507462414</v>
       </c>
       <c r="D13">
-        <v>0.02335076116869317</v>
+        <v>0.04532072608382265</v>
       </c>
       <c r="E13">
-        <v>0.1389115998071091</v>
+        <v>0.346566344615411</v>
       </c>
       <c r="F13">
-        <v>0.7520525394815252</v>
+        <v>0.9675444370411839</v>
       </c>
       <c r="G13">
-        <v>0.002397949734164428</v>
+        <v>0.0007590823013201502</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.477151255647641</v>
+        <v>4.733060716418549</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.5278042697825356</v>
+        <v>1.617936662479948</v>
       </c>
       <c r="N13">
-        <v>1.057781305952389</v>
+        <v>0.5386712811360823</v>
       </c>
       <c r="O13">
-        <v>2.458862992370342</v>
+        <v>2.691876218169824</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.07654253132216127</v>
+        <v>0.2435826039884716</v>
       </c>
       <c r="D14">
-        <v>0.02314043247028508</v>
+        <v>0.0447076877465733</v>
       </c>
       <c r="E14">
-        <v>0.1374731801681008</v>
+        <v>0.3397578671507162</v>
       </c>
       <c r="F14">
-        <v>0.7494122281951832</v>
+        <v>0.95167969933064</v>
       </c>
       <c r="G14">
-        <v>0.002398489314873251</v>
+        <v>0.0007600055355715857</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.452550817871895</v>
+        <v>4.648863422472346</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.5197374829166819</v>
+        <v>1.587826975790989</v>
       </c>
       <c r="N14">
-        <v>1.05951192279597</v>
+        <v>0.5424417397487318</v>
       </c>
       <c r="O14">
-        <v>2.453299408073519</v>
+        <v>2.650234002484268</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.07577605172095048</v>
+        <v>0.2407455569590837</v>
       </c>
       <c r="D15">
-        <v>0.02301150851317857</v>
+        <v>0.04433220582657071</v>
       </c>
       <c r="E15">
-        <v>0.1365942571002634</v>
+        <v>0.3356087527767926</v>
       </c>
       <c r="F15">
-        <v>0.7478058196200408</v>
+        <v>0.942016614692804</v>
       </c>
       <c r="G15">
-        <v>0.002398821749170676</v>
+        <v>0.0007605722863311588</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.437480354904608</v>
+        <v>4.597344769133656</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.5147982885868032</v>
+        <v>1.569423151187124</v>
       </c>
       <c r="N15">
-        <v>1.060581252197913</v>
+        <v>0.544780955053902</v>
       </c>
       <c r="O15">
-        <v>2.449928160742303</v>
+        <v>2.624903297239939</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.07138862640597665</v>
+        <v>0.2245771620939934</v>
       </c>
       <c r="D16">
-        <v>0.02227130914559439</v>
+        <v>0.04218064114584763</v>
       </c>
       <c r="E16">
-        <v>0.1315902550416226</v>
+        <v>0.3121419827103935</v>
       </c>
       <c r="F16">
-        <v>0.7387662967125408</v>
+        <v>0.887443511638466</v>
       </c>
       <c r="G16">
-        <v>0.002400756363951905</v>
+        <v>0.0007638398020100791</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.351088128781839</v>
+        <v>4.302895249836581</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.4865235475484724</v>
+        <v>1.464526584325824</v>
       </c>
       <c r="N16">
-        <v>1.066851297660278</v>
+        <v>0.5586297909020672</v>
       </c>
       <c r="O16">
-        <v>2.43116901187804</v>
+        <v>2.482339448967053</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.06870149344855747</v>
+        <v>0.2147332479718926</v>
       </c>
       <c r="D17">
-        <v>0.02181599836249148</v>
+        <v>0.04086070834939193</v>
       </c>
       <c r="E17">
-        <v>0.1285494574242563</v>
+        <v>0.2980058736640885</v>
       </c>
       <c r="F17">
-        <v>0.73336880835285</v>
+        <v>0.8546450373761871</v>
       </c>
       <c r="G17">
-        <v>0.002401969630200752</v>
+        <v>0.0007658625711494015</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.2980639808913</v>
+        <v>4.122901821955509</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.4692044497779193</v>
+        <v>1.400648437512032</v>
       </c>
       <c r="N17">
-        <v>1.070824575821881</v>
+        <v>0.5675094448319626</v>
       </c>
       <c r="O17">
-        <v>2.420159583034007</v>
+        <v>2.397085240333922</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.06715754046557265</v>
+        <v>0.2090968610891224</v>
       </c>
       <c r="D18">
-        <v>0.02155367290127685</v>
+        <v>0.04010144730438014</v>
       </c>
       <c r="E18">
-        <v>0.126811036403943</v>
+        <v>0.2899643093668018</v>
       </c>
       <c r="F18">
-        <v>0.7303185750534738</v>
+        <v>0.8360166649026439</v>
       </c>
       <c r="G18">
-        <v>0.002402677209725571</v>
+        <v>0.0007670329836704297</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.267556988999388</v>
+        <v>4.019588426614916</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.4592527015725665</v>
+        <v>1.36406781130097</v>
       </c>
       <c r="N18">
-        <v>1.073156488585667</v>
+        <v>0.5727531943933215</v>
       </c>
       <c r="O18">
-        <v>2.41401008905757</v>
+        <v>2.348816100031883</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.06663506129076779</v>
+        <v>0.2071926905656909</v>
       </c>
       <c r="D19">
-        <v>0.0214647785854396</v>
+        <v>0.03984435662324159</v>
       </c>
       <c r="E19">
-        <v>0.1262242429599567</v>
+        <v>0.287256300524902</v>
       </c>
       <c r="F19">
-        <v>0.7292951263777638</v>
+        <v>0.8297487784591908</v>
       </c>
       <c r="G19">
-        <v>0.002402918459101885</v>
+        <v>0.000767430486311755</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.257226354287411</v>
+        <v>3.984643052263834</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.4558848819007011</v>
+        <v>1.351708573525471</v>
       </c>
       <c r="N19">
-        <v>1.073954034562483</v>
+        <v>0.5745516380774021</v>
       </c>
       <c r="O19">
-        <v>2.411959337709618</v>
+        <v>2.332600735054541</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.06898737607717464</v>
+        <v>0.2157784599688881</v>
       </c>
       <c r="D20">
-        <v>0.02186451294115699</v>
+        <v>0.0410012233587338</v>
       </c>
       <c r="E20">
-        <v>0.1288720600129238</v>
+        <v>0.2995013193123555</v>
       </c>
       <c r="F20">
-        <v>0.7339377619163514</v>
+        <v>0.858111720752845</v>
       </c>
       <c r="G20">
-        <v>0.00240183946844162</v>
+        <v>0.0007656465283872934</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.303709422541374</v>
+        <v>4.142039795329879</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.4710470890538829</v>
+        <v>1.407431483865054</v>
       </c>
       <c r="N20">
-        <v>1.07039679157549</v>
+        <v>0.5665499703076051</v>
       </c>
       <c r="O20">
-        <v>2.421312622687537</v>
+        <v>2.406080382087055</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.07691016705808806</v>
+        <v>0.2449447027485974</v>
       </c>
       <c r="D21">
-        <v>0.02320223022314849</v>
+        <v>0.0448877470298541</v>
       </c>
       <c r="E21">
-        <v>0.137895230218362</v>
+        <v>0.3417532093579183</v>
       </c>
       <c r="F21">
-        <v>0.7501854881018915</v>
+        <v>0.9563281123577525</v>
       </c>
       <c r="G21">
-        <v>0.002398330425882551</v>
+        <v>0.0007597341018079539</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.459776978543175</v>
+        <v>4.673582693600963</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.5221064882255035</v>
+        <v>1.596662665045201</v>
       </c>
       <c r="N21">
-        <v>1.059001665355105</v>
+        <v>0.5413280470736908</v>
       </c>
       <c r="O21">
-        <v>2.454925936016963</v>
+        <v>2.662428317780922</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.08210267518074943</v>
+        <v>0.2642767798618593</v>
       </c>
       <c r="D22">
-        <v>0.02407242546159694</v>
+        <v>0.04742861191940762</v>
       </c>
       <c r="E22">
-        <v>0.1438884010578363</v>
+        <v>0.3703019214454173</v>
       </c>
       <c r="F22">
-        <v>0.7612899923584422</v>
+        <v>1.02292143370093</v>
       </c>
       <c r="G22">
-        <v>0.002396123312226823</v>
+        <v>0.000755926340252975</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.561688398218678</v>
+        <v>5.023361633155389</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.5555637956273216</v>
+        <v>1.722055612365395</v>
       </c>
       <c r="N22">
-        <v>1.051969453745059</v>
+        <v>0.5261606515116313</v>
       </c>
       <c r="O22">
-        <v>2.478531533333296</v>
+        <v>2.837741507743772</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.07933000247155064</v>
+        <v>0.2539319931313599</v>
       </c>
       <c r="D23">
-        <v>0.02360836587409665</v>
+        <v>0.04607235723415926</v>
       </c>
       <c r="E23">
-        <v>0.1406808548732315</v>
+        <v>0.3549721817790399</v>
       </c>
       <c r="F23">
-        <v>0.7553187487980182</v>
+        <v>0.9871442416838221</v>
       </c>
       <c r="G23">
-        <v>0.002397293422319558</v>
+        <v>0.0007579537486365154</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.507304792717662</v>
+        <v>4.836435313370714</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.5376990212422754</v>
+        <v>1.654958789022984</v>
       </c>
       <c r="N23">
-        <v>1.055684674376508</v>
+        <v>0.5341301170787531</v>
       </c>
       <c r="O23">
-        <v>2.465782517881195</v>
+        <v>2.743413831489363</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.06885812569213101</v>
+        <v>0.2153058484103241</v>
       </c>
       <c r="D24">
-        <v>0.02184258124636784</v>
+        <v>0.04093769782794254</v>
       </c>
       <c r="E24">
-        <v>0.1287261809611238</v>
+        <v>0.2988249636114944</v>
       </c>
       <c r="F24">
-        <v>0.7336803733965098</v>
+        <v>0.8565437265187086</v>
       </c>
       <c r="G24">
-        <v>0.002401898283251938</v>
+        <v>0.0007657441778882027</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.301157189000151</v>
+        <v>4.133387001836411</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.4702140155498427</v>
+        <v>1.404364423913535</v>
       </c>
       <c r="N24">
-        <v>1.070590044488966</v>
+        <v>0.5669833177603181</v>
       </c>
       <c r="O24">
-        <v>2.420790772942951</v>
+        <v>2.402011369284196</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.05762412821110274</v>
+        <v>0.1745981754336299</v>
       </c>
       <c r="D25">
-        <v>0.01992104640781633</v>
+        <v>0.03539580179181456</v>
       </c>
       <c r="E25">
-        <v>0.1162338769982725</v>
+        <v>0.2416036285772805</v>
       </c>
       <c r="F25">
-        <v>0.7124127108677669</v>
+        <v>0.7245656613312406</v>
       </c>
       <c r="G25">
-        <v>0.002407238092294347</v>
+        <v>0.0007744166727266484</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.078457449965811</v>
+        <v>3.382989974522957</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.3977923958518588</v>
+        <v>1.140051693437961</v>
       </c>
       <c r="N25">
-        <v>1.088448971057915</v>
+        <v>0.607586784120997</v>
       </c>
       <c r="O25">
-        <v>2.379244413025418</v>
+        <v>2.062614937105678</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_21/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_21/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,8 +415,14 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -424,46 +430,52 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1452378996883255</v>
+        <v>0.03863632939728134</v>
       </c>
       <c r="D2">
-        <v>0.03130513624256537</v>
+        <v>0.1629235326808072</v>
       </c>
       <c r="E2">
-        <v>0.2016790757597136</v>
+        <v>0.2057399159306179</v>
       </c>
       <c r="F2">
-        <v>0.63360141064625</v>
+        <v>1.435397911352339</v>
       </c>
       <c r="G2">
-        <v>0.0007810623996103241</v>
+        <v>1.078603764226784</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.007974798748292489</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.03009559699460862</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.6307041373903246</v>
       </c>
       <c r="K2">
-        <v>2.834930719169506</v>
+        <v>0.8633749321075115</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.2890546466107793</v>
       </c>
       <c r="M2">
-        <v>0.9491801665584489</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.6414463723479784</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>1.832984822629555</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>7.663121664604034</v>
+      </c>
+      <c r="Q2">
+        <v>3.557382846915516</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -471,46 +483,52 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1256278653783625</v>
+        <v>0.03479337420674611</v>
       </c>
       <c r="D3">
-        <v>0.02852344039804322</v>
+        <v>0.1504364110658614</v>
       </c>
       <c r="E3">
-        <v>0.1757050675055822</v>
+        <v>0.1864430146291518</v>
       </c>
       <c r="F3">
-        <v>0.5751838324530141</v>
+        <v>1.287907221261747</v>
       </c>
       <c r="G3">
-        <v>0.0007857415181399037</v>
+        <v>0.9554244535895435</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.005288617466095435</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.02441696358595813</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.5747148519939742</v>
       </c>
       <c r="K3">
-        <v>2.465229200556792</v>
+        <v>0.7726627301332059</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.2596011457819216</v>
       </c>
       <c r="M3">
-        <v>0.8215330657882873</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0.6666512935718742</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>1.687968667405727</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>6.74968365211538</v>
+      </c>
+      <c r="Q3">
+        <v>3.178772751025434</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -518,46 +536,52 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1137006808101262</v>
+        <v>0.03236162084361638</v>
       </c>
       <c r="D4">
-        <v>0.02680998873166729</v>
+        <v>0.1428304376229548</v>
       </c>
       <c r="E4">
-        <v>0.1602038594345103</v>
+        <v>0.1745948867425575</v>
       </c>
       <c r="F4">
-        <v>0.5407139659867681</v>
+        <v>1.197611992052671</v>
       </c>
       <c r="G4">
-        <v>0.0007887048779537893</v>
+        <v>0.8799184689593602</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.003864013712085668</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.02113032789315206</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.5404660176074145</v>
       </c>
       <c r="K4">
-        <v>2.238768736372549</v>
+        <v>0.7168892374533158</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.2414821918136099</v>
       </c>
       <c r="M4">
-        <v>0.7438139085598294</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0.683176205471355</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>1.603546397271373</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>6.187481969423061</v>
+      </c>
+      <c r="Q4">
+        <v>2.946831907463292</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -565,46 +589,52 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.108864889889503</v>
+        <v>0.03116252112807771</v>
       </c>
       <c r="D5">
-        <v>0.0261102674284075</v>
+        <v>0.1398220369347669</v>
       </c>
       <c r="E5">
-        <v>0.1539873919569885</v>
+        <v>0.1697828515938973</v>
       </c>
       <c r="F5">
-        <v>0.5269920739670724</v>
+        <v>1.160052534355899</v>
       </c>
       <c r="G5">
-        <v>0.0007899357324821286</v>
+        <v>0.8483381493233821</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.003333330617490637</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.01986755221925085</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.526121823309893</v>
       </c>
       <c r="K5">
-        <v>2.146577833249097</v>
+        <v>0.6931838482162789</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.2340523372150614</v>
       </c>
       <c r="M5">
-        <v>0.7122826077397164</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0.6901649403605958</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>1.570220014958892</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>5.958052239810286</v>
+      </c>
+      <c r="Q5">
+        <v>2.849780754626437</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -612,46 +642,52 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1080632885671235</v>
+        <v>0.03073227742599727</v>
       </c>
       <c r="D6">
-        <v>0.02599398746561477</v>
+        <v>0.139417966328466</v>
       </c>
       <c r="E6">
-        <v>0.1529608805952591</v>
+        <v>0.1690059255044112</v>
       </c>
       <c r="F6">
-        <v>0.5247324283516335</v>
+        <v>1.152819187146065</v>
       </c>
       <c r="G6">
-        <v>0.0007901415350673442</v>
+        <v>0.8420773483881732</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.003244902336418276</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.01970577544120733</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.5232337406545327</v>
       </c>
       <c r="K6">
-        <v>2.131274090604308</v>
+        <v>0.6880810892202405</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.2327756251845088</v>
       </c>
       <c r="M6">
-        <v>0.7070546008900891</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0.6913405428869055</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>1.56474881557574</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>5.919936152110608</v>
+      </c>
+      <c r="Q6">
+        <v>2.830449627097323</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -659,46 +695,52 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1136353688922895</v>
+        <v>0.03171167907992256</v>
       </c>
       <c r="D7">
-        <v>0.02680055814218463</v>
+        <v>0.1430488775565451</v>
       </c>
       <c r="E7">
-        <v>0.1601196307350676</v>
+        <v>0.1745911228789829</v>
       </c>
       <c r="F7">
-        <v>0.5405276268096273</v>
+        <v>1.194368175416457</v>
       </c>
       <c r="G7">
-        <v>0.0007887213828172442</v>
+        <v>0.8767037675296905</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.003846557493952019</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.02122146290533067</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.5388822758474276</v>
       </c>
       <c r="K7">
-        <v>2.237525091790758</v>
+        <v>0.7133783695555493</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.2412665657071003</v>
       </c>
       <c r="M7">
-        <v>0.7433881322009412</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>0.6832694383096509</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>1.60309269645731</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>6.184389112219776</v>
+      </c>
+      <c r="Q7">
+        <v>2.936700236316483</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -706,46 +748,52 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1384503929599106</v>
+        <v>0.03647428449473011</v>
       </c>
       <c r="D8">
-        <v>0.03034708112544493</v>
+        <v>0.158949745395617</v>
       </c>
       <c r="E8">
-        <v>0.1926230064893204</v>
+        <v>0.1991669867221439</v>
       </c>
       <c r="F8">
-        <v>0.6131520404586723</v>
+        <v>1.380827198761381</v>
       </c>
       <c r="G8">
-        <v>0.0007826573389265166</v>
+        <v>1.032372415228565</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.006982228044075556</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.02820751897723905</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.6095156198091729</v>
       </c>
       <c r="K8">
-        <v>2.707319981295484</v>
+        <v>0.8278481006225462</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.2787502857161286</v>
       </c>
       <c r="M8">
-        <v>0.905015412873162</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>0.6499136759237203</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>1.781972031719789</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>7.348453399592813</v>
+      </c>
+      <c r="Q8">
+        <v>3.414928372572604</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -753,46 +801,52 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.1882021483828424</v>
+        <v>0.04641565959596505</v>
       </c>
       <c r="D9">
-        <v>0.037263734420101</v>
+        <v>0.1902222148348756</v>
       </c>
       <c r="E9">
-        <v>0.2604940293798848</v>
+        <v>0.2473497715540347</v>
       </c>
       <c r="F9">
-        <v>0.7679669318753781</v>
+        <v>1.754172096806741</v>
       </c>
       <c r="G9">
-        <v>0.0007714567243122725</v>
+        <v>1.344234451255829</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.01512257932042094</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.04358499673320981</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.7518042296856038</v>
       </c>
       <c r="K9">
-        <v>3.634920541847123</v>
+        <v>1.057791532826002</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.3523399229077171</v>
       </c>
       <c r="M9">
-        <v>1.228415964554486</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>0.5932634345903622</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>2.173505378370066</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>9.620230281550789</v>
+      </c>
+      <c r="Q9">
+        <v>4.374537722984257</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -800,46 +854,52 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.2257040251987661</v>
+        <v>0.05331939824850451</v>
       </c>
       <c r="D10">
-        <v>0.0423312496487398</v>
+        <v>0.2083567830545547</v>
       </c>
       <c r="E10">
-        <v>0.3137675474508086</v>
+        <v>0.2730225004308835</v>
       </c>
       <c r="F10">
-        <v>0.8912190551136803</v>
+        <v>2.007374795170676</v>
       </c>
       <c r="G10">
-        <v>0.0007636099156508774</v>
+        <v>1.559967264548987</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.02226620202528329</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.05607692318915269</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.8500368101289837</v>
       </c>
       <c r="K10">
-        <v>4.323464314779642</v>
+        <v>1.216114099212547</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.3901558707406991</v>
       </c>
       <c r="M10">
-        <v>1.471838204528567</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>0.5576353767592508</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>2.492174538374599</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>11.28258838837513</v>
+      </c>
+      <c r="Q10">
+        <v>5.037918191419863</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -847,46 +907,52 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.2430397126155412</v>
+        <v>0.05758020937536656</v>
       </c>
       <c r="D11">
-        <v>0.04463588295815413</v>
+        <v>0.1728498052417109</v>
       </c>
       <c r="E11">
-        <v>0.3389631811092926</v>
+        <v>0.2061694217057024</v>
       </c>
       <c r="F11">
-        <v>0.9498286160386726</v>
+        <v>1.925723988471162</v>
       </c>
       <c r="G11">
-        <v>0.0007601138414273468</v>
+        <v>1.534773313275934</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.04061369891385169</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.0598684685706754</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.8340773645363413</v>
       </c>
       <c r="K11">
-        <v>4.639008285055581</v>
+        <v>1.202455908476367</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.2804129842086454</v>
       </c>
       <c r="M11">
-        <v>1.584305302320544</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>0.5428873173575042</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>2.64537962630007</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>12.03742316731751</v>
+      </c>
+      <c r="Q11">
+        <v>4.951272246614508</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -894,46 +960,52 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.2496501722355617</v>
+        <v>0.06119363645565556</v>
       </c>
       <c r="D12">
-        <v>0.04550871477353979</v>
+        <v>0.142436159347568</v>
       </c>
       <c r="E12">
-        <v>0.3486627030517084</v>
+        <v>0.1548373268956524</v>
       </c>
       <c r="F12">
-        <v>0.972431195029273</v>
+        <v>1.808527686433578</v>
       </c>
       <c r="G12">
-        <v>0.0007587996959770174</v>
+        <v>1.472003262410368</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.07828145577956747</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.06026239534418654</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.801676034667878</v>
       </c>
       <c r="K12">
-        <v>4.758900798863067</v>
+        <v>1.162140595447184</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.2002530253199808</v>
       </c>
       <c r="M12">
-        <v>1.62718529552987</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>0.5375270959620693</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>2.704716567034751</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>12.32306348037548</v>
+      </c>
+      <c r="Q12">
+        <v>4.75044654705431</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -941,46 +1013,52 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.2482243507462414</v>
+        <v>0.06347172871173967</v>
       </c>
       <c r="D13">
-        <v>0.04532072608382265</v>
+        <v>0.1147180021732126</v>
       </c>
       <c r="E13">
-        <v>0.346566344615411</v>
+        <v>0.112766103933339</v>
       </c>
       <c r="F13">
-        <v>0.9675444370411839</v>
+        <v>1.653574280502198</v>
       </c>
       <c r="G13">
-        <v>0.0007590823013201502</v>
+        <v>1.372588898416751</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1322827171826759</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.05818611895572268</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.7526758056765175</v>
       </c>
       <c r="K13">
-        <v>4.733060716418549</v>
+        <v>1.094104500649109</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.1383019048160392</v>
       </c>
       <c r="M13">
-        <v>1.617936662479948</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>0.5386712811360823</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>2.691876218169824</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>12.26155457991888</v>
+      </c>
+      <c r="Q13">
+        <v>4.437115140260744</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -988,46 +1066,52 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.2435826039884716</v>
+        <v>0.06425691128380606</v>
       </c>
       <c r="D14">
-        <v>0.0447076877465733</v>
+        <v>0.09725120707054913</v>
       </c>
       <c r="E14">
-        <v>0.3397578671507162</v>
+        <v>0.08915391559349573</v>
       </c>
       <c r="F14">
-        <v>0.95167969933064</v>
+        <v>1.528568056046637</v>
       </c>
       <c r="G14">
-        <v>0.0007600055355715857</v>
+        <v>1.28633628877148</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.180148664278903</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.05571561372047107</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.7107841735705165</v>
       </c>
       <c r="K14">
-        <v>4.648863422472346</v>
+        <v>1.033455441851146</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.1061772097636222</v>
       </c>
       <c r="M14">
-        <v>1.587826975790989</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>0.5424417397487318</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>2.650234002484268</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>12.06092695796559</v>
+      </c>
+      <c r="Q14">
+        <v>4.166533482743148</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1035,46 +1119,52 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.2407455569590837</v>
+        <v>0.06377644414018135</v>
       </c>
       <c r="D15">
-        <v>0.04433220582657071</v>
+        <v>0.09316780508196132</v>
       </c>
       <c r="E15">
-        <v>0.3356087527767926</v>
+        <v>0.08405496780434518</v>
       </c>
       <c r="F15">
-        <v>0.942016614692804</v>
+        <v>1.48931206428577</v>
       </c>
       <c r="G15">
-        <v>0.0007605722863311588</v>
+        <v>1.256743109502992</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1920429417390181</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.05464881588601145</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.6966777961634421</v>
       </c>
       <c r="K15">
-        <v>4.597344769133656</v>
+        <v>1.011784450193957</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.09965445245132187</v>
       </c>
       <c r="M15">
-        <v>1.569423151187124</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>0.544780955053902</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>2.624903297239939</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>11.93801081193845</v>
+      </c>
+      <c r="Q15">
+        <v>4.074241450258739</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1082,46 +1172,52 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.2245771620939934</v>
+        <v>0.05982600139721228</v>
       </c>
       <c r="D16">
-        <v>0.04218064114584763</v>
+        <v>0.09185286482992439</v>
       </c>
       <c r="E16">
-        <v>0.3121419827103935</v>
+        <v>0.08290204689368785</v>
       </c>
       <c r="F16">
-        <v>0.887443511638466</v>
+        <v>1.414143374866427</v>
       </c>
       <c r="G16">
-        <v>0.0007638398020100791</v>
+        <v>1.184791697597007</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1765533818816039</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.04973064981919251</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.6645463235347506</v>
       </c>
       <c r="K16">
-        <v>4.302895249836581</v>
+        <v>0.9571645007122243</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.09802733496122329</v>
       </c>
       <c r="M16">
-        <v>1.464526584325824</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>0.5586297909020672</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>2.482339448967053</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>11.23323027560713</v>
+      </c>
+      <c r="Q16">
+        <v>3.854273454665531</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1129,46 +1225,52 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.2147332479718926</v>
+        <v>0.05635548871925522</v>
       </c>
       <c r="D17">
-        <v>0.04086070834939193</v>
+        <v>0.09968399680492723</v>
       </c>
       <c r="E17">
-        <v>0.2980058736640885</v>
+        <v>0.09340124577345676</v>
       </c>
       <c r="F17">
-        <v>0.8546450373761871</v>
+        <v>1.422055899040586</v>
       </c>
       <c r="G17">
-        <v>0.0007658625711494015</v>
+        <v>1.174982255015408</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1374462939103296</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.04729336961297115</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.6619835065770019</v>
       </c>
       <c r="K17">
-        <v>4.122901821955509</v>
+        <v>0.947160081767791</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.1116763581829403</v>
       </c>
       <c r="M17">
-        <v>1.400648437512032</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>0.5675094448319626</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>2.397085240333922</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>10.80051555282938</v>
+      </c>
+      <c r="Q17">
+        <v>3.828000119370017</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1176,46 +1278,52 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.2090968610891224</v>
+        <v>0.05371528642076129</v>
       </c>
       <c r="D18">
-        <v>0.04010144730438014</v>
+        <v>0.1181074186713289</v>
       </c>
       <c r="E18">
-        <v>0.2899643093668018</v>
+        <v>0.120435364986033</v>
       </c>
       <c r="F18">
-        <v>0.8360166649026439</v>
+        <v>1.505433787927529</v>
       </c>
       <c r="G18">
-        <v>0.0007670329836704297</v>
+        <v>1.219830119065136</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.08460576249996166</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.04651679073962356</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.6856221206168129</v>
       </c>
       <c r="K18">
-        <v>4.019588426614916</v>
+        <v>0.9769179504573771</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1501690105921014</v>
       </c>
       <c r="M18">
-        <v>1.36406781130097</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>0.5727531943933215</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>2.348816100031883</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>10.55149949033279</v>
+      </c>
+      <c r="Q18">
+        <v>3.972490421179032</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1223,46 +1331,52 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.2071926905656909</v>
+        <v>0.05076138994323287</v>
       </c>
       <c r="D19">
-        <v>0.03984435662324159</v>
+        <v>0.1471288779073134</v>
       </c>
       <c r="E19">
-        <v>0.287256300524902</v>
+        <v>0.1670364578054553</v>
       </c>
       <c r="F19">
-        <v>0.8297487784591908</v>
+        <v>1.641482794337279</v>
       </c>
       <c r="G19">
-        <v>0.000767430486311755</v>
+        <v>1.301429917366363</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.04077628458509963</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.04750370241881896</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.7265061440348859</v>
       </c>
       <c r="K19">
-        <v>3.984643052263834</v>
+        <v>1.03124882019452</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.2211118311824478</v>
       </c>
       <c r="M19">
-        <v>1.351708573525471</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>0.5745516380774021</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>2.332600735054541</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>10.46716465870099</v>
+      </c>
+      <c r="Q19">
+        <v>4.231039096430607</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1270,46 +1384,52 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.2157784599688881</v>
+        <v>0.04951278227662215</v>
       </c>
       <c r="D20">
-        <v>0.0410012233587338</v>
+        <v>0.2041594754681029</v>
       </c>
       <c r="E20">
-        <v>0.2995013193123555</v>
+        <v>0.2660457265964098</v>
       </c>
       <c r="F20">
-        <v>0.858111720752845</v>
+        <v>1.93103715571533</v>
       </c>
       <c r="G20">
-        <v>0.0007656465283872934</v>
+        <v>1.493682322270814</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.02018575747554774</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.05301417989919788</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.8194503952375385</v>
       </c>
       <c r="K20">
-        <v>4.142039795329879</v>
+        <v>1.163933466824915</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.3791674741563611</v>
       </c>
       <c r="M20">
-        <v>1.407431483865054</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>0.5665499703076051</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>2.406080382087055</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>10.84659223998074</v>
+      </c>
+      <c r="Q20">
+        <v>4.833267889973854</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1317,46 +1437,52 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.2449447027485974</v>
+        <v>0.05478925445886773</v>
       </c>
       <c r="D21">
-        <v>0.0448877470298541</v>
+        <v>0.2264642354186464</v>
       </c>
       <c r="E21">
-        <v>0.3417532093579183</v>
+        <v>0.3012217099851213</v>
       </c>
       <c r="F21">
-        <v>0.9563281123577525</v>
+        <v>2.162778148541861</v>
       </c>
       <c r="G21">
-        <v>0.0007597341018079539</v>
+        <v>1.683058224684657</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.02668460907515713</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.06349971958936518</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.906628732467766</v>
       </c>
       <c r="K21">
-        <v>4.673582693600963</v>
+        <v>1.302042051201354</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.4336166581483667</v>
       </c>
       <c r="M21">
-        <v>1.596662665045201</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>0.5413280470736908</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>2.662428317780922</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>12.11986155709377</v>
+      </c>
+      <c r="Q21">
+        <v>5.41752509591754</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1364,46 +1490,52 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.2642767798618593</v>
+        <v>0.05914148402387553</v>
       </c>
       <c r="D22">
-        <v>0.04742861191940762</v>
+        <v>0.2380474438526363</v>
       </c>
       <c r="E22">
-        <v>0.3703019214454173</v>
+        <v>0.3191417801157073</v>
       </c>
       <c r="F22">
-        <v>1.02292143370093</v>
+        <v>2.307388350197229</v>
       </c>
       <c r="G22">
-        <v>0.000755926340252975</v>
+        <v>1.804223258597318</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.03115953274935279</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.07045212812988932</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.962378135681206</v>
       </c>
       <c r="K22">
-        <v>5.023361633155389</v>
+        <v>1.392098779327995</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.4611500707500937</v>
       </c>
       <c r="M22">
-        <v>1.722055612365395</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>0.5261606515116313</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>2.837741507743772</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>12.95085643057945</v>
+      </c>
+      <c r="Q22">
+        <v>5.79127458140988</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1411,46 +1543,52 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.2539319931313599</v>
+        <v>0.05758518247557021</v>
       </c>
       <c r="D23">
-        <v>0.04607235723415926</v>
+        <v>0.2315380248178798</v>
       </c>
       <c r="E23">
-        <v>0.3549721817790399</v>
+        <v>0.309493852353512</v>
       </c>
       <c r="F23">
-        <v>0.9871442416838221</v>
+        <v>2.233467175640754</v>
       </c>
       <c r="G23">
-        <v>0.0007579537486365154</v>
+        <v>1.74290902725923</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.02876522766260159</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.06657910567505887</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.9342805033827233</v>
       </c>
       <c r="K23">
-        <v>4.836435313370714</v>
+        <v>1.347902982976805</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.4465875659221012</v>
       </c>
       <c r="M23">
-        <v>1.654958789022984</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>0.5341301170787531</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>2.743413831489363</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>12.50744471934257</v>
+      </c>
+      <c r="Q23">
+        <v>5.602376031992037</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1458,46 +1596,52 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.2153058484103241</v>
+        <v>0.05041016564547363</v>
       </c>
       <c r="D24">
-        <v>0.04093769782794254</v>
+        <v>0.2076120659098279</v>
       </c>
       <c r="E24">
-        <v>0.2988249636114944</v>
+        <v>0.2732461872940917</v>
       </c>
       <c r="F24">
-        <v>0.8565437265187086</v>
+        <v>1.949984680502112</v>
       </c>
       <c r="G24">
-        <v>0.0007657441778882027</v>
+        <v>1.506619830398336</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.02036877361973466</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.05283536005202816</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.8259260185078006</v>
       </c>
       <c r="K24">
-        <v>4.133387001836411</v>
+        <v>1.174906790523565</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.3914154387424986</v>
       </c>
       <c r="M24">
-        <v>1.404364423913535</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>0.5669833177603181</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>2.402011369284196</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>10.82576172529139</v>
+      </c>
+      <c r="Q24">
+        <v>4.874245777457645</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1505,43 +1649,49 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.1745981754336299</v>
+        <v>0.04261813540999881</v>
       </c>
       <c r="D25">
-        <v>0.03539580179181456</v>
+        <v>0.1821687372453482</v>
       </c>
       <c r="E25">
-        <v>0.2416036285772805</v>
+        <v>0.2344031856351805</v>
       </c>
       <c r="F25">
-        <v>0.7245656613312406</v>
+        <v>1.647737255810952</v>
       </c>
       <c r="G25">
-        <v>0.0007744166727266484</v>
+        <v>1.254471875475105</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.01265215390048274</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.03937286478092528</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.7105834199862215</v>
       </c>
       <c r="K25">
-        <v>3.382989974522957</v>
+        <v>0.9896935330457524</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.33220999613755</v>
       </c>
       <c r="M25">
-        <v>1.140051693437961</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>0.607586784120997</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>2.062614937105678</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>9.00683856119241</v>
+      </c>
+      <c r="Q25">
+        <v>4.097798137175459</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_21/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_21/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,8 +421,14 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -430,52 +436,58 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.03863632939728134</v>
+        <v>0.02125830473790424</v>
       </c>
       <c r="D2">
-        <v>0.1629235326808072</v>
+        <v>0.1741672767689266</v>
       </c>
       <c r="E2">
-        <v>0.2057399159306179</v>
+        <v>0.2067488973274649</v>
       </c>
       <c r="F2">
-        <v>1.435397911352339</v>
+        <v>1.300583393392174</v>
       </c>
       <c r="G2">
-        <v>1.078603764226784</v>
+        <v>0.9199787852519279</v>
       </c>
       <c r="H2">
-        <v>0.007974798748292489</v>
+        <v>0.006568455893647407</v>
       </c>
       <c r="I2">
-        <v>0.03009559699460862</v>
+        <v>0.02493762166293578</v>
       </c>
       <c r="J2">
-        <v>0.6307041373903246</v>
+        <v>0.6179929060079417</v>
       </c>
       <c r="K2">
-        <v>0.8633749321075115</v>
+        <v>0.7086101060186394</v>
       </c>
       <c r="L2">
-        <v>0.2890546466107793</v>
+        <v>0.3428709933405827</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.2187624777585171</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.2806815537294369</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>7.663121664604034</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>3.557382846915516</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>7.663121664602784</v>
+      </c>
+      <c r="S2">
+        <v>3.126608907903488</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -483,52 +495,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.03479337420674611</v>
+        <v>0.01910020329120665</v>
       </c>
       <c r="D3">
-        <v>0.1504364110658614</v>
+        <v>0.1599231013112075</v>
       </c>
       <c r="E3">
-        <v>0.1864430146291518</v>
+        <v>0.1873350535536282</v>
       </c>
       <c r="F3">
-        <v>1.287907221261747</v>
+        <v>1.174543581698003</v>
       </c>
       <c r="G3">
-        <v>0.9554244535895435</v>
+        <v>0.8184077884025243</v>
       </c>
       <c r="H3">
-        <v>0.005288617466095435</v>
+        <v>0.004315179410872561</v>
       </c>
       <c r="I3">
-        <v>0.02441696358595813</v>
+        <v>0.02055698144171725</v>
       </c>
       <c r="J3">
-        <v>0.5747148519939742</v>
+        <v>0.5705135115516242</v>
       </c>
       <c r="K3">
-        <v>0.7726627301332059</v>
+        <v>0.6417738787110352</v>
       </c>
       <c r="L3">
-        <v>0.2596011457819216</v>
+        <v>0.3299942521200734</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.1814707587055722</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.2526202112356728</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
         <v>6.74968365211538</v>
       </c>
-      <c r="Q3">
-        <v>3.178772751025434</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="S3">
+        <v>2.816550861475235</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -536,52 +554,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.03236162084361638</v>
+        <v>0.01780607330976913</v>
       </c>
       <c r="D4">
-        <v>0.1428304376229548</v>
+        <v>0.1512658895677319</v>
       </c>
       <c r="E4">
-        <v>0.1745948867425575</v>
+        <v>0.1754184453995649</v>
       </c>
       <c r="F4">
-        <v>1.197611992052671</v>
+        <v>1.097175400785645</v>
       </c>
       <c r="G4">
-        <v>0.8799184689593602</v>
+        <v>0.7560590173976465</v>
       </c>
       <c r="H4">
-        <v>0.003864013712085668</v>
+        <v>0.003124342578241901</v>
       </c>
       <c r="I4">
-        <v>0.02113032789315206</v>
+        <v>0.01801066816762331</v>
       </c>
       <c r="J4">
-        <v>0.5404660176074145</v>
+        <v>0.5412110552183407</v>
       </c>
       <c r="K4">
-        <v>0.7168892374533158</v>
+        <v>0.6004458609767269</v>
       </c>
       <c r="L4">
-        <v>0.2414821918136099</v>
+        <v>0.3216400067622587</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.1593131613838992</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.2353412611047716</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
         <v>6.187481969423061</v>
       </c>
-      <c r="Q4">
-        <v>2.946831907463292</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="S4">
+        <v>2.62594362991382</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -589,52 +613,58 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.03116252112807771</v>
+        <v>0.01727034270513395</v>
       </c>
       <c r="D5">
-        <v>0.1398220369347669</v>
+        <v>0.1478399171542222</v>
       </c>
       <c r="E5">
-        <v>0.1697828515938973</v>
+        <v>0.1705806182987182</v>
       </c>
       <c r="F5">
-        <v>1.160052534355899</v>
+        <v>1.064886781037515</v>
       </c>
       <c r="G5">
-        <v>0.8483381493233821</v>
+        <v>0.7298921644390646</v>
       </c>
       <c r="H5">
-        <v>0.003333330617490637</v>
+        <v>0.002682148341913493</v>
       </c>
       <c r="I5">
-        <v>0.01986755221925085</v>
+        <v>0.01705258741008642</v>
       </c>
       <c r="J5">
-        <v>0.526121823309893</v>
+        <v>0.5288407211754418</v>
       </c>
       <c r="K5">
-        <v>0.6931838482162789</v>
+        <v>0.5826909395533519</v>
       </c>
       <c r="L5">
-        <v>0.2340523372150614</v>
+        <v>0.3177648046533292</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.1501893503089207</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.228253092610359</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
         <v>5.958052239810286</v>
       </c>
-      <c r="Q5">
-        <v>2.849780754626437</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="S5">
+        <v>2.545787613317373</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -642,52 +672,58 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.03073227742599727</v>
+        <v>0.01716643404624152</v>
       </c>
       <c r="D6">
-        <v>0.139417966328466</v>
+        <v>0.1473717344140582</v>
       </c>
       <c r="E6">
-        <v>0.1690059255044112</v>
+        <v>0.1698006829935998</v>
       </c>
       <c r="F6">
-        <v>1.152819187146065</v>
+        <v>1.058599141773186</v>
       </c>
       <c r="G6">
-        <v>0.8420773483881732</v>
+        <v>0.7246242902863571</v>
       </c>
       <c r="H6">
-        <v>0.003244902336418276</v>
+        <v>0.00260866863529996</v>
       </c>
       <c r="I6">
-        <v>0.01970577544120733</v>
+        <v>0.01696158974221795</v>
       </c>
       <c r="J6">
-        <v>0.5232337406545327</v>
+        <v>0.5263067345979522</v>
       </c>
       <c r="K6">
-        <v>0.6880810892202405</v>
+        <v>0.5787138960317435</v>
       </c>
       <c r="L6">
-        <v>0.2327756251845088</v>
+        <v>0.3166776423135005</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.1483445227356448</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.2270359359748042</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
         <v>5.919936152110608</v>
       </c>
-      <c r="Q6">
-        <v>2.830449627097323</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="S6">
+        <v>2.529533260086794</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -695,52 +731,58 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.03171167907992256</v>
+        <v>0.01775818286164066</v>
       </c>
       <c r="D7">
-        <v>0.1430488775565451</v>
+        <v>0.151660027642059</v>
       </c>
       <c r="E7">
-        <v>0.1745911228789829</v>
+        <v>0.1754588421089949</v>
       </c>
       <c r="F7">
-        <v>1.194368175416457</v>
+        <v>1.092670315763428</v>
       </c>
       <c r="G7">
-        <v>0.8767037675296905</v>
+        <v>0.7582392506366773</v>
       </c>
       <c r="H7">
-        <v>0.003846557493952019</v>
+        <v>0.003105683710788343</v>
       </c>
       <c r="I7">
-        <v>0.02122146290533067</v>
+        <v>0.01814710565701549</v>
       </c>
       <c r="J7">
-        <v>0.5388822758474276</v>
+        <v>0.53201941322952</v>
       </c>
       <c r="K7">
-        <v>0.7133783695555493</v>
+        <v>0.5964496191400528</v>
       </c>
       <c r="L7">
-        <v>0.2412665657071003</v>
+        <v>0.3200096107414083</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.157915375906363</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.2350758073640833</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
         <v>6.184389112219776</v>
       </c>
-      <c r="Q7">
-        <v>2.936700236316483</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="S7">
+        <v>2.611941905924596</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -748,52 +790,58 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.03647428449473011</v>
+        <v>0.02046828456227257</v>
       </c>
       <c r="D8">
-        <v>0.158949745395617</v>
+        <v>0.1701669892175062</v>
       </c>
       <c r="E8">
-        <v>0.1991669867221439</v>
+        <v>0.2002807976559957</v>
       </c>
       <c r="F8">
-        <v>1.380827198761381</v>
+        <v>1.248618444558858</v>
       </c>
       <c r="G8">
-        <v>1.032372415228565</v>
+        <v>0.8985449897662079</v>
       </c>
       <c r="H8">
-        <v>0.006982228044075556</v>
+        <v>0.00571704369352799</v>
       </c>
       <c r="I8">
-        <v>0.02820751897723905</v>
+        <v>0.02353256154020844</v>
       </c>
       <c r="J8">
-        <v>0.6095156198091729</v>
+        <v>0.5743947207966613</v>
       </c>
       <c r="K8">
-        <v>0.8278481006225462</v>
+        <v>0.6787256198607068</v>
       </c>
       <c r="L8">
-        <v>0.2787502857161286</v>
+        <v>0.3357621573118408</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.2032744367513217</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.270665333509605</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
         <v>7.348453399592813</v>
       </c>
-      <c r="Q8">
-        <v>3.414928372572604</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="S8">
+        <v>2.992772277470323</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -801,52 +849,58 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.04641565959596505</v>
+        <v>0.02613162363106181</v>
       </c>
       <c r="D9">
-        <v>0.1902222148348756</v>
+        <v>0.2061334683408518</v>
       </c>
       <c r="E9">
-        <v>0.2473497715540347</v>
+        <v>0.24880114497482</v>
       </c>
       <c r="F9">
-        <v>1.754172096806741</v>
+        <v>1.565182467042732</v>
       </c>
       <c r="G9">
-        <v>1.344234451255829</v>
+        <v>1.160358796221288</v>
       </c>
       <c r="H9">
-        <v>0.01512257932042094</v>
+        <v>0.01254955625911364</v>
       </c>
       <c r="I9">
-        <v>0.04358499673320981</v>
+        <v>0.03520709754159057</v>
       </c>
       <c r="J9">
-        <v>0.7518042296856038</v>
+        <v>0.686348676583151</v>
       </c>
       <c r="K9">
-        <v>1.057791532826002</v>
+        <v>0.8464047621790201</v>
       </c>
       <c r="L9">
-        <v>0.3523399229077171</v>
+        <v>0.3665650617060621</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.3012052919972277</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.3406018850435117</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
         <v>9.620230281550789</v>
       </c>
-      <c r="Q9">
-        <v>4.374537722984257</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="S9">
+        <v>3.770984471144686</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -854,52 +908,58 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.05331939824850451</v>
+        <v>0.03038347209801273</v>
       </c>
       <c r="D10">
-        <v>0.2083567830545547</v>
+        <v>0.2284038070927465</v>
       </c>
       <c r="E10">
-        <v>0.2730225004308835</v>
+        <v>0.2748256159515776</v>
       </c>
       <c r="F10">
-        <v>2.007374795170676</v>
+        <v>1.768450884471363</v>
       </c>
       <c r="G10">
-        <v>1.559967264548987</v>
+        <v>1.371236043007315</v>
       </c>
       <c r="H10">
-        <v>0.02226620202528329</v>
+        <v>0.01851271476542315</v>
       </c>
       <c r="I10">
-        <v>0.05607692318915269</v>
+        <v>0.04456680358716181</v>
       </c>
       <c r="J10">
-        <v>0.8500368101289837</v>
+        <v>0.717598848252635</v>
       </c>
       <c r="K10">
-        <v>1.216114099212547</v>
+        <v>0.9543171740712637</v>
       </c>
       <c r="L10">
-        <v>0.3901558707406991</v>
+        <v>0.3820086689178979</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.3712262652311082</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.3755490202025697</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
         <v>11.28258838837513</v>
       </c>
-      <c r="Q10">
-        <v>5.037918191419863</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="S10">
+        <v>4.274122693426136</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -907,52 +967,58 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.05758020937536656</v>
+        <v>0.0311246767595641</v>
       </c>
       <c r="D11">
-        <v>0.1728498052417109</v>
+        <v>0.1920235844477531</v>
       </c>
       <c r="E11">
-        <v>0.2061694217057024</v>
+        <v>0.207164651057461</v>
       </c>
       <c r="F11">
-        <v>1.925723988471162</v>
+        <v>1.670324866674136</v>
       </c>
       <c r="G11">
-        <v>1.534773313275934</v>
+        <v>1.412393902158101</v>
       </c>
       <c r="H11">
-        <v>0.04061369891385169</v>
+        <v>0.03665974346456835</v>
       </c>
       <c r="I11">
-        <v>0.0598684685706754</v>
+        <v>0.04740625732227155</v>
       </c>
       <c r="J11">
-        <v>0.8340773645363413</v>
+        <v>0.6125287479825943</v>
       </c>
       <c r="K11">
-        <v>1.202455908476367</v>
+        <v>0.927160759860655</v>
       </c>
       <c r="L11">
-        <v>0.2804129842086454</v>
+        <v>0.3620033882070572</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.3724765444579106</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.2666934881172338</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
         <v>12.03742316731751</v>
       </c>
-      <c r="Q11">
-        <v>4.951272246614508</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="S11">
+        <v>4.123560110050732</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -960,52 +1026,58 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.06119363645565556</v>
+        <v>0.03136998460228657</v>
       </c>
       <c r="D12">
-        <v>0.142436159347568</v>
+        <v>0.1590871974355537</v>
       </c>
       <c r="E12">
-        <v>0.1548373268956524</v>
+        <v>0.1547818197088411</v>
       </c>
       <c r="F12">
-        <v>1.808527686433578</v>
+        <v>1.555880658069654</v>
       </c>
       <c r="G12">
-        <v>1.472003262410368</v>
+        <v>1.386175245780322</v>
       </c>
       <c r="H12">
-        <v>0.07828145577956747</v>
+        <v>0.07438743657055369</v>
       </c>
       <c r="I12">
-        <v>0.06026239534418654</v>
+        <v>0.04762413368575924</v>
       </c>
       <c r="J12">
-        <v>0.801676034667878</v>
+        <v>0.5489525383291038</v>
       </c>
       <c r="K12">
-        <v>1.162140595447184</v>
+        <v>0.8893058722840408</v>
       </c>
       <c r="L12">
-        <v>0.2002530253199808</v>
+        <v>0.345008861021789</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.3614324166803158</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.1881310936502061</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
         <v>12.32306348037548</v>
       </c>
-      <c r="Q12">
-        <v>4.75044654705431</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="S12">
+        <v>3.921172967442828</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1013,52 +1085,58 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.06347172871173967</v>
+        <v>0.03125673602233903</v>
       </c>
       <c r="D13">
-        <v>0.1147180021732126</v>
+        <v>0.1274367649365828</v>
       </c>
       <c r="E13">
-        <v>0.112766103933339</v>
+        <v>0.1114685573777123</v>
       </c>
       <c r="F13">
-        <v>1.653574280502198</v>
+        <v>1.421763992118187</v>
       </c>
       <c r="G13">
-        <v>1.372588898416751</v>
+        <v>1.289788818231784</v>
       </c>
       <c r="H13">
-        <v>0.1322827171826759</v>
+        <v>0.1286718855053408</v>
       </c>
       <c r="I13">
-        <v>0.05818611895572268</v>
+        <v>0.04610692431858876</v>
       </c>
       <c r="J13">
-        <v>0.7526758056765175</v>
+        <v>0.5223318223871161</v>
       </c>
       <c r="K13">
-        <v>1.094104500649109</v>
+        <v>0.8388918294368821</v>
       </c>
       <c r="L13">
-        <v>0.1383019048160392</v>
+        <v>0.3282051498221819</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.3396473344365987</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.1283238696651168</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
         <v>12.26155457991888</v>
       </c>
-      <c r="Q13">
-        <v>4.437115140260744</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="S13">
+        <v>3.665744613886034</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1066,52 +1144,58 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.06425691128380606</v>
+        <v>0.03101835683141818</v>
       </c>
       <c r="D14">
-        <v>0.09725120707054913</v>
+        <v>0.1068232415655999</v>
       </c>
       <c r="E14">
-        <v>0.08915391559349573</v>
+        <v>0.08698512850001094</v>
       </c>
       <c r="F14">
-        <v>1.528568056046637</v>
+        <v>1.318659512343629</v>
       </c>
       <c r="G14">
-        <v>1.28633628877148</v>
+        <v>1.192344542000683</v>
       </c>
       <c r="H14">
-        <v>0.180148664278903</v>
+        <v>0.1768203284818242</v>
       </c>
       <c r="I14">
-        <v>0.05571561372047107</v>
+        <v>0.044357955525407</v>
       </c>
       <c r="J14">
-        <v>0.7107841735705165</v>
+        <v>0.5177744633633807</v>
       </c>
       <c r="K14">
-        <v>1.033455441851146</v>
+        <v>0.7970916391743046</v>
       </c>
       <c r="L14">
-        <v>0.1061772097636222</v>
+        <v>0.3160749107975107</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.3193818875763128</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.09782237063625843</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
         <v>12.06092695796559</v>
       </c>
-      <c r="Q14">
-        <v>4.166533482743148</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="S14">
+        <v>3.460530165743819</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1119,52 +1203,58 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.06377644414018135</v>
+        <v>0.03073647366089283</v>
       </c>
       <c r="D15">
-        <v>0.09316780508196132</v>
+        <v>0.1018118809289348</v>
       </c>
       <c r="E15">
-        <v>0.08405496780434518</v>
+        <v>0.08168462020625178</v>
       </c>
       <c r="F15">
-        <v>1.48931206428577</v>
+        <v>1.288031006772869</v>
       </c>
       <c r="G15">
-        <v>1.256743109502992</v>
+        <v>1.154726127538112</v>
       </c>
       <c r="H15">
-        <v>0.1920429417390181</v>
+        <v>0.1888363115238434</v>
       </c>
       <c r="I15">
-        <v>0.05464881588601145</v>
+        <v>0.04364598892560245</v>
       </c>
       <c r="J15">
-        <v>0.6966777961634421</v>
+        <v>0.5222148361633572</v>
       </c>
       <c r="K15">
-        <v>1.011784450193957</v>
+        <v>0.783047977573041</v>
       </c>
       <c r="L15">
-        <v>0.09965445245132187</v>
+        <v>0.312653964590325</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.3117695144809502</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.09176937275200459</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
         <v>11.93801081193845</v>
       </c>
-      <c r="Q15">
-        <v>4.074241450258739</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="S15">
+        <v>3.39536136759358</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1172,52 +1262,58 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.05982600139721228</v>
+        <v>0.02887472567028126</v>
       </c>
       <c r="D16">
-        <v>0.09185286482992439</v>
+        <v>0.09891717490769025</v>
       </c>
       <c r="E16">
-        <v>0.08290204689368785</v>
+        <v>0.08059607134382851</v>
       </c>
       <c r="F16">
-        <v>1.414143374866427</v>
+        <v>1.241272459974411</v>
       </c>
       <c r="G16">
-        <v>1.184791697597007</v>
+        <v>1.040316963664424</v>
       </c>
       <c r="H16">
-        <v>0.1765533818816039</v>
+        <v>0.1738602872651853</v>
       </c>
       <c r="I16">
-        <v>0.04973064981919251</v>
+        <v>0.04016237188984473</v>
       </c>
       <c r="J16">
-        <v>0.6645463235347506</v>
+        <v>0.5708497544476785</v>
       </c>
       <c r="K16">
-        <v>0.9571645007122243</v>
+        <v>0.7541249366169893</v>
       </c>
       <c r="L16">
-        <v>0.09802733496122329</v>
+        <v>0.3111020535427258</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.2894445928799456</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.09092680442899592</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
         <v>11.23323027560713</v>
       </c>
-      <c r="Q16">
-        <v>3.854273454665531</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="S16">
+        <v>3.271072053522971</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1225,52 +1321,58 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.05635548871925522</v>
+        <v>0.02759962601407828</v>
       </c>
       <c r="D17">
-        <v>0.09968399680492723</v>
+        <v>0.107145671023325</v>
       </c>
       <c r="E17">
-        <v>0.09340124577345676</v>
+        <v>0.09154323890802019</v>
       </c>
       <c r="F17">
-        <v>1.422055899040586</v>
+        <v>1.25788270284535</v>
       </c>
       <c r="G17">
-        <v>1.174982255015408</v>
+        <v>1.010816443790929</v>
       </c>
       <c r="H17">
-        <v>0.1374462939103296</v>
+        <v>0.1349851175170471</v>
       </c>
       <c r="I17">
-        <v>0.04729336961297115</v>
+        <v>0.03841760283895734</v>
       </c>
       <c r="J17">
-        <v>0.6619835065770019</v>
+        <v>0.6025819312489915</v>
       </c>
       <c r="K17">
-        <v>0.947160081767791</v>
+        <v>0.7527015880835606</v>
       </c>
       <c r="L17">
-        <v>0.1116763581829403</v>
+        <v>0.3160383691303537</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.2824053232802584</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.1044006053559521</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
         <v>10.80051555282938</v>
       </c>
-      <c r="Q17">
-        <v>3.828000119370017</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="S17">
+        <v>3.277804052728413</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1278,52 +1380,58 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.05371528642076129</v>
+        <v>0.02695457966928361</v>
       </c>
       <c r="D18">
-        <v>0.1181074186713289</v>
+        <v>0.1274276556960743</v>
       </c>
       <c r="E18">
-        <v>0.120435364986033</v>
+        <v>0.1193496240323171</v>
       </c>
       <c r="F18">
-        <v>1.505433787927529</v>
+        <v>1.337118930516027</v>
       </c>
       <c r="G18">
-        <v>1.219830119065136</v>
+        <v>1.04089959847488</v>
       </c>
       <c r="H18">
-        <v>0.08460576249996166</v>
+        <v>0.08216633624821412</v>
       </c>
       <c r="I18">
-        <v>0.04651679073962356</v>
+        <v>0.03776364608195326</v>
       </c>
       <c r="J18">
-        <v>0.6856221206168129</v>
+        <v>0.6379080268049506</v>
       </c>
       <c r="K18">
-        <v>0.9769179504573771</v>
+        <v>0.7791402152706652</v>
       </c>
       <c r="L18">
-        <v>0.1501690105921014</v>
+        <v>0.3288573085267785</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.2891674492448217</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.1419039813146412</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
         <v>10.55149949033279</v>
       </c>
-      <c r="Q18">
-        <v>3.972490421179032</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="S18">
+        <v>3.415405055705264</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1331,52 +1439,58 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.05076138994323287</v>
+        <v>0.02702086967449979</v>
       </c>
       <c r="D19">
-        <v>0.1471288779073134</v>
+        <v>0.1593764248678013</v>
       </c>
       <c r="E19">
-        <v>0.1670364578054553</v>
+        <v>0.1669387105744775</v>
       </c>
       <c r="F19">
-        <v>1.641482794337279</v>
+        <v>1.460406259257056</v>
       </c>
       <c r="G19">
-        <v>1.301429917366363</v>
+        <v>1.108637650618476</v>
       </c>
       <c r="H19">
-        <v>0.04077628458509963</v>
+        <v>0.03816246044443261</v>
       </c>
       <c r="I19">
-        <v>0.04750370241881896</v>
+        <v>0.03854690772840197</v>
       </c>
       <c r="J19">
-        <v>0.7265061440348859</v>
+        <v>0.6775199770236213</v>
       </c>
       <c r="K19">
-        <v>1.03124882019452</v>
+        <v>0.8223358522983943</v>
       </c>
       <c r="L19">
-        <v>0.2211118311824478</v>
+        <v>0.3457264251482215</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.3050375262189249</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.2112089392319163</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
         <v>10.46716465870099</v>
       </c>
-      <c r="Q19">
-        <v>4.231039096430607</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="S19">
+        <v>3.640798208294314</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1384,52 +1498,58 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.04951278227662215</v>
+        <v>0.02941764810130643</v>
       </c>
       <c r="D20">
-        <v>0.2041594754681029</v>
+        <v>0.2225158445112783</v>
       </c>
       <c r="E20">
-        <v>0.2660457265964098</v>
+        <v>0.2676061003031123</v>
       </c>
       <c r="F20">
-        <v>1.93103715571533</v>
+        <v>1.711831897395285</v>
       </c>
       <c r="G20">
-        <v>1.493682322270814</v>
+        <v>1.288348410897044</v>
       </c>
       <c r="H20">
-        <v>0.02018575747554774</v>
+        <v>0.01680528387057523</v>
       </c>
       <c r="I20">
-        <v>0.05301417989919788</v>
+        <v>0.04264071383732659</v>
       </c>
       <c r="J20">
-        <v>0.8194503952375385</v>
+        <v>0.7323400376901361</v>
       </c>
       <c r="K20">
-        <v>1.163933466824915</v>
+        <v>0.9204875939159223</v>
       </c>
       <c r="L20">
-        <v>0.3791674741563611</v>
+        <v>0.3760463561482794</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.3503979190887492</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.3655857478157998</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
         <v>10.84659223998074</v>
       </c>
-      <c r="Q20">
-        <v>4.833267889973854</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="S20">
+        <v>4.132963940188233</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1437,52 +1557,58 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.05478925445886773</v>
+        <v>0.03284516858194042</v>
       </c>
       <c r="D21">
-        <v>0.2264642354186464</v>
+        <v>0.2522412541375161</v>
       </c>
       <c r="E21">
-        <v>0.3012217099851213</v>
+        <v>0.304161157542076</v>
       </c>
       <c r="F21">
-        <v>2.162778148541861</v>
+        <v>1.870922678188876</v>
       </c>
       <c r="G21">
-        <v>1.683058224684657</v>
+        <v>1.573475589808794</v>
       </c>
       <c r="H21">
-        <v>0.02668460907515713</v>
+        <v>0.02205189997610235</v>
       </c>
       <c r="I21">
-        <v>0.06349971958936518</v>
+        <v>0.05008186407898574</v>
       </c>
       <c r="J21">
-        <v>0.906628732467766</v>
+        <v>0.6299089131475313</v>
       </c>
       <c r="K21">
-        <v>1.302042051201354</v>
+        <v>0.9975803622853761</v>
       </c>
       <c r="L21">
-        <v>0.4336166581483667</v>
+        <v>0.3855722664720531</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.4029863426004496</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.4161263426353656</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
         <v>12.11986155709377</v>
       </c>
-      <c r="Q21">
-        <v>5.41752509591754</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="S21">
+        <v>4.48750000955107</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1490,52 +1616,58 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.05914148402387553</v>
+        <v>0.03502876477854233</v>
       </c>
       <c r="D22">
-        <v>0.2380474438526363</v>
+        <v>0.2688492473522643</v>
       </c>
       <c r="E22">
-        <v>0.3191417801157073</v>
+        <v>0.323018439610685</v>
       </c>
       <c r="F22">
-        <v>2.307388350197229</v>
+        <v>1.965542618458883</v>
       </c>
       <c r="G22">
-        <v>1.804223258597318</v>
+        <v>1.771362119912368</v>
       </c>
       <c r="H22">
-        <v>0.03115953274935279</v>
+        <v>0.02564676164219448</v>
       </c>
       <c r="I22">
-        <v>0.07045212812988932</v>
+        <v>0.05484818976836348</v>
       </c>
       <c r="J22">
-        <v>0.962378135681206</v>
+        <v>0.5594845196241636</v>
       </c>
       <c r="K22">
-        <v>1.392098779327995</v>
+        <v>1.046037149865484</v>
       </c>
       <c r="L22">
-        <v>0.4611500707500937</v>
+        <v>0.390951794678351</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.4372026723146689</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.4411080425306437</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
         <v>12.95085643057945</v>
       </c>
-      <c r="Q22">
-        <v>5.79127458140988</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="S22">
+        <v>4.702608746391149</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1543,52 +1675,58 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.05758518247557021</v>
+        <v>0.03382325742748638</v>
       </c>
       <c r="D23">
-        <v>0.2315380248178798</v>
+        <v>0.259124702063076</v>
       </c>
       <c r="E23">
-        <v>0.309493852353512</v>
+        <v>0.3127307233267729</v>
       </c>
       <c r="F23">
-        <v>2.233467175640754</v>
+        <v>1.922240942100956</v>
       </c>
       <c r="G23">
-        <v>1.74290902725923</v>
+        <v>1.653499486205448</v>
       </c>
       <c r="H23">
-        <v>0.02876522766260159</v>
+        <v>0.02374491900796882</v>
       </c>
       <c r="I23">
-        <v>0.06657910567505887</v>
+        <v>0.05210820566668151</v>
       </c>
       <c r="J23">
-        <v>0.9342805033827233</v>
+        <v>0.6149492146688829</v>
       </c>
       <c r="K23">
-        <v>1.347902982976805</v>
+        <v>1.026057987488045</v>
       </c>
       <c r="L23">
-        <v>0.4465875659221012</v>
+        <v>0.3901445433793569</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.4213001356309221</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.4280589438899938</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
         <v>12.50744471934257</v>
       </c>
-      <c r="Q23">
-        <v>5.602376031992037</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="S23">
+        <v>4.610548157390781</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1596,52 +1734,58 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.05041016564547363</v>
+        <v>0.02941059784413724</v>
       </c>
       <c r="D24">
-        <v>0.2076120659098279</v>
+        <v>0.2262319575956582</v>
       </c>
       <c r="E24">
-        <v>0.2732461872940917</v>
+        <v>0.2748994077592712</v>
       </c>
       <c r="F24">
-        <v>1.949984680502112</v>
+        <v>1.729344241441467</v>
       </c>
       <c r="G24">
-        <v>1.506619830398336</v>
+        <v>1.298770707546453</v>
       </c>
       <c r="H24">
-        <v>0.02036877361973466</v>
+        <v>0.01695452453552293</v>
       </c>
       <c r="I24">
-        <v>0.05283536005202816</v>
+        <v>0.04231761562422598</v>
       </c>
       <c r="J24">
-        <v>0.8259260185078006</v>
+        <v>0.7395434211683209</v>
       </c>
       <c r="K24">
-        <v>1.174906790523565</v>
+        <v>0.9297829532223716</v>
       </c>
       <c r="L24">
-        <v>0.3914154387424986</v>
+        <v>0.3797002055976648</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.3537826663844257</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.3776295293749854</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
         <v>10.82576172529139</v>
       </c>
-      <c r="Q24">
-        <v>4.874245777457645</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="S24">
+        <v>4.16999278032597</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1649,49 +1793,55 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.04261813540999881</v>
+        <v>0.02460966154994448</v>
       </c>
       <c r="D25">
-        <v>0.1821687372453482</v>
+        <v>0.1965665025632575</v>
       </c>
       <c r="E25">
-        <v>0.2344031856351805</v>
+        <v>0.2357087325177005</v>
       </c>
       <c r="F25">
-        <v>1.647737255810952</v>
+        <v>1.477013224312159</v>
       </c>
       <c r="G25">
-        <v>1.254471875475105</v>
+        <v>1.077392999408289</v>
       </c>
       <c r="H25">
-        <v>0.01265215390048274</v>
+        <v>0.01048552136645792</v>
       </c>
       <c r="I25">
-        <v>0.03937286478092528</v>
+        <v>0.0321981223958101</v>
       </c>
       <c r="J25">
-        <v>0.7105834199862215</v>
+        <v>0.664788239924988</v>
       </c>
       <c r="K25">
-        <v>0.9896935330457524</v>
+        <v>0.7975509779336036</v>
       </c>
       <c r="L25">
-        <v>0.33220999613755</v>
+        <v>0.3572082604129321</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.2726420153643545</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.3215872756696285</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
         <v>9.00683856119241</v>
       </c>
-      <c r="Q25">
-        <v>4.097798137175459</v>
+      <c r="S25">
+        <v>3.552782082859437</v>
       </c>
     </row>
   </sheetData>
